--- a/_data/NHANES_popcount_DMstatus_staged.xlsx
+++ b/_data/NHANES_popcount_DMstatus_staged.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PreDM\_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewc\GitHub\PreDM\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA8AB74-D055-47EE-882F-FFB290CEB082}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="14685"/>
+    <workbookView xWindow="2310" yWindow="3465" windowWidth="16950" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NHANES_popcount_DMstatus_table" sheetId="1" r:id="rId1"/>
@@ -115,9 +116,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -758,7 +759,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -767,7 +768,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -776,15 +777,15 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -796,10 +797,10 @@
     <xf numFmtId="3" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -810,10 +811,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -862,10 +863,10 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="18">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -877,20 +878,91 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="170" formatCode="0.0000%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -908,7 +980,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="170" formatCode="0.0000%"/>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -941,7 +1013,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="170" formatCode="0.0000%"/>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -976,7 +1048,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="170" formatCode="0.0000%"/>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1088,13 +1160,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -1107,6 +1172,42 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1123,20 +1224,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H61" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10" headerRowCellStyle="Percent">
-  <autoFilter ref="A1:H61"/>
-  <sortState ref="A2:H61">
-    <sortCondition descending="1" ref="G1:G61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D5084825-23D6-415C-A7B0-F4812C615534}" name="Table2" displayName="Table2" ref="A1:H127" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowCellStyle="Percent" dataCellStyle="Percent">
+  <autoFilter ref="A1:H127" xr:uid="{82C6ADC3-D2E8-469F-97CC-B7A37F8F05EF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H127">
+    <sortCondition ref="A1:A127"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Diabetes Risk" dataDxfId="8"/>
-    <tableColumn id="2" name="Diabetes Status" dataDxfId="7"/>
-    <tableColumn id="3" name="Race and Ethnicity" dataDxfId="6"/>
-    <tableColumn id="4" name="Frequency in NHANES" dataDxfId="5"/>
-    <tableColumn id="5" name="Population Estimate" dataDxfId="4"/>
-    <tableColumn id="6" name="Percent of Total Population" dataDxfId="3" dataCellStyle="Percent"/>
-    <tableColumn id="7" name="Percent of Racial and Ethnic Group" dataDxfId="2" dataCellStyle="Percent"/>
-    <tableColumn id="8" name="Percent of Risk Group" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{27D89ED7-893F-4E4B-BDD3-8E5A735B5829}" name="DMRisk"/>
+    <tableColumn id="2" xr3:uid="{F2C41DD4-FAFB-48FC-923E-CD4CB1908041}" name="DMStatus"/>
+    <tableColumn id="3" xr3:uid="{54A8A654-9C45-40EC-A1C5-DEF59CFFD5FA}" name="RaceEthnicity"/>
+    <tableColumn id="4" xr3:uid="{E96DF47B-9DDD-48B0-A74D-01C971F5D99D}" name="Frequency" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{987FB6EA-AD7F-4863-8FD6-33BD3CD10840}" name="Population" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{D7ACEADB-6C38-44F6-A5E3-D0E24FF462BC}" name="PercentTotal" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{402520DB-AAA1-472C-B8A2-FD0D0483DB59}" name="PercentRaceEth" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{6E36FAA5-F9A3-4B87-8A90-F3A52144F164}" name="PercentRisk" dataDxfId="2" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H61" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" headerRowCellStyle="Percent">
+  <autoFilter ref="A1:H61" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H61">
+    <sortCondition ref="B1:B61"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Diabetes Risk" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Diabetes Status" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Race and Ethnicity" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Frequency in NHANES" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Population Estimate" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Percent of Total Population" dataDxfId="9" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Percent of Racial and Ethnic Group" dataDxfId="8" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Percent of Risk Group" dataDxfId="7" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1404,11 +1525,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A381" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C395" sqref="C395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,210 +1572,210 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1">
-        <v>9544</v>
+        <v>428</v>
       </c>
       <c r="E2" s="1">
-        <v>316481044</v>
+        <v>14406881</v>
       </c>
       <c r="F2" s="2">
-        <v>1</v>
+        <v>4.5522097683676752E-2</v>
       </c>
       <c r="G2" s="2">
-        <v>1</v>
+        <v>4.5522097683676752E-2</v>
       </c>
       <c r="H2" s="2">
-        <v>1</v>
+        <v>0.16912829988391601</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>7581</v>
+        <v>94</v>
       </c>
       <c r="E3" s="1">
-        <v>231297896</v>
+        <v>8229313</v>
       </c>
       <c r="F3" s="2">
-        <v>0.73084281155240371</v>
+        <v>2.6002546301003734E-2</v>
       </c>
       <c r="G3" s="2">
-        <v>0.73084281155240371</v>
+        <v>4.2890616934942942E-2</v>
       </c>
       <c r="H3" s="2">
-        <v>1</v>
+        <v>9.6607289037967933E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
-        <v>6914</v>
+        <v>114</v>
       </c>
       <c r="E4" s="1">
-        <v>223545787</v>
+        <v>2202693</v>
       </c>
       <c r="F4" s="2">
-        <v>0.70634810911455415</v>
+        <v>6.9599523944947556E-3</v>
       </c>
       <c r="G4" s="2">
-        <v>0.70634810911455415</v>
+        <v>5.8328903770349209E-2</v>
       </c>
       <c r="H4" s="2">
-        <v>0.70634810911455415</v>
+        <v>2.5858318830856077E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>2948</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1">
-        <v>191867443</v>
+        <v>1701229</v>
       </c>
       <c r="F5" s="2">
-        <v>0.60625255963197588</v>
+        <v>5.3754530713694178E-3</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>5.0937223547063822E-2</v>
       </c>
       <c r="H5" s="2">
-        <v>0.60625255963197588</v>
+        <v>1.9971426742763723E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
-        <v>6204</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1">
-        <v>185529966</v>
+        <v>1090709</v>
       </c>
       <c r="F6" s="2">
-        <v>0.58622773628110247</v>
+        <v>3.4463643895209094E-3</v>
       </c>
       <c r="G6" s="2">
-        <v>0.58622773628110247</v>
+        <v>4.8797258392482057E-2</v>
       </c>
       <c r="H6" s="2">
-        <v>0.8021256103427763</v>
+        <v>1.280428142899814E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>2235</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1">
-        <v>138186319</v>
+        <v>760033</v>
       </c>
       <c r="F7" s="2">
-        <v>0.43663379409226166</v>
+        <v>2.4015119212005632E-3</v>
       </c>
       <c r="G7" s="2">
-        <v>0.72021765047444763</v>
+        <v>5.6472785683046582E-2</v>
       </c>
       <c r="H7" s="2">
-        <v>0.43663379409226166</v>
+        <v>8.922339897558142E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1">
-        <v>2380</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1">
-        <v>134889627</v>
+        <v>422904</v>
       </c>
       <c r="F8" s="2">
-        <v>0.42621708174092093</v>
+        <v>1.3362696060873712E-3</v>
       </c>
       <c r="G8" s="2">
-        <v>0.70303551707831957</v>
+        <v>2.3972116650424657E-2</v>
       </c>
       <c r="H8" s="2">
-        <v>0.58318570697244909</v>
+        <v>4.9646439457719967E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1">
-        <v>1971</v>
+        <v>248</v>
       </c>
       <c r="E9" s="1">
-        <v>109698212</v>
+        <v>11641522</v>
       </c>
       <c r="F9" s="2">
-        <v>0.34661858610400692</v>
+        <v>3.6784263135835715E-2</v>
       </c>
       <c r="G9" s="2">
-        <v>0.57173958377086409</v>
+        <v>3.6784263135835715E-2</v>
       </c>
       <c r="H9" s="2">
-        <v>0.4742724162090951</v>
+        <v>0.13666461352191397</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1662,25 +1783,25 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1">
-        <v>1963</v>
+        <v>82</v>
       </c>
       <c r="E10" s="1">
-        <v>85183148</v>
+        <v>8268499</v>
       </c>
       <c r="F10" s="2">
-        <v>0.26915718844759623</v>
+        <v>2.612636414331343E-2</v>
       </c>
       <c r="G10" s="2">
-        <v>0.26915718844759623</v>
+        <v>4.3094851688829774E-2</v>
       </c>
       <c r="H10" s="2">
-        <v>1</v>
+        <v>9.7067309604477167E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1688,51 +1809,51 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1">
-        <v>568</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1">
-        <v>56977816</v>
+        <v>1051214</v>
       </c>
       <c r="F11" s="2">
-        <v>0.18003547789105498</v>
+        <v>3.3215701854168553E-3</v>
       </c>
       <c r="G11" s="2">
-        <v>0.29696448292168048</v>
+        <v>2.7836907026101174E-2</v>
       </c>
       <c r="H11" s="2">
-        <v>0.6688860101765669</v>
+        <v>1.2340633384434207E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>1179</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1">
-        <v>41438648</v>
+        <v>788172</v>
       </c>
       <c r="F12" s="2">
-        <v>0.13093563986094536</v>
+        <v>2.4904240394252493E-3</v>
       </c>
       <c r="G12" s="2">
-        <v>0.13093563986094536</v>
+        <v>2.3598994231544598E-2</v>
       </c>
       <c r="H12" s="2">
-        <v>0.13093563986094536</v>
+        <v>9.2526751887591664E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1740,77 +1861,77 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1">
-        <v>710</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1">
-        <v>38015821</v>
+        <v>675360</v>
       </c>
       <c r="F13" s="2">
-        <v>0.1201203728334516</v>
+        <v>2.1339666713182355E-3</v>
       </c>
       <c r="G13" s="2">
-        <v>0.1201203728334516</v>
+        <v>3.0214948650782822E-2</v>
       </c>
       <c r="H13" s="2">
-        <v>0.44628335407374237</v>
+        <v>7.9283287346929229E-3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
-        <v>2052</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1">
-        <v>37763319</v>
+        <v>504170</v>
       </c>
       <c r="F14" s="2">
-        <v>0.119322530419863</v>
+        <v>1.5930495982565073E-3</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>3.7461379121461295E-2</v>
       </c>
       <c r="H14" s="2">
-        <v>0.119322530419863</v>
+        <v>5.9186589347461072E-3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1">
-        <v>1837</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1">
-        <v>33398542</v>
+        <v>354107</v>
       </c>
       <c r="F15" s="2">
-        <v>0.10553093979303228</v>
+        <v>1.1188884981054347E-3</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
+        <v>2.0072390686141358E-2</v>
       </c>
       <c r="H15" s="2">
-        <v>0.10553093979303228</v>
+        <v>4.157007674804411E-3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1821,308 +1942,308 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1">
-        <v>264</v>
+        <v>710</v>
       </c>
       <c r="E16" s="1">
-        <v>28488107</v>
+        <v>38015821</v>
       </c>
       <c r="F16" s="2">
-        <v>9.0015207988254742E-2</v>
+        <v>0.1201203728334516</v>
       </c>
       <c r="G16" s="2">
-        <v>0.14847806670358346</v>
+        <v>0.1201203728334516</v>
       </c>
       <c r="H16" s="2">
-        <v>0.33443360181992804</v>
+        <v>0.44628335407374237</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1">
-        <v>1570</v>
+        <v>264</v>
       </c>
       <c r="E17" s="1">
-        <v>27590558</v>
+        <v>28488107</v>
       </c>
       <c r="F17" s="2">
-        <v>8.717918031134908E-2</v>
+        <v>9.0015207988254742E-2</v>
       </c>
       <c r="G17" s="2">
-        <v>0.73061793111987849</v>
+        <v>0.14847806670358346</v>
       </c>
       <c r="H17" s="2">
-        <v>0.11928581486102234</v>
+        <v>0.33443360181992804</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1">
-        <v>1439</v>
+        <v>144</v>
       </c>
       <c r="E18" s="1">
-        <v>26200064</v>
+        <v>3217755</v>
       </c>
       <c r="F18" s="2">
-        <v>8.2785571195221411E-2</v>
+        <v>1.0167291409718681E-2</v>
       </c>
       <c r="G18" s="2">
-        <v>0.78446729800360748</v>
+        <v>8.5208479688980723E-2</v>
       </c>
       <c r="H18" s="2">
-        <v>0.11327411296469381</v>
+        <v>3.7774549022301922E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1">
-        <v>820</v>
+        <v>125</v>
       </c>
       <c r="E19" s="1">
-        <v>26191401</v>
+        <v>2431699</v>
       </c>
       <c r="F19" s="2">
-        <v>8.2758198307763417E-2</v>
+        <v>7.6835533947492915E-3</v>
       </c>
       <c r="G19" s="2">
-        <v>8.2758198307763417E-2</v>
+        <v>0.10879184497032685</v>
       </c>
       <c r="H19" s="2">
-        <v>8.2758198307763417E-2</v>
+        <v>2.8546714427600164E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1">
-        <v>1381</v>
+        <v>117</v>
       </c>
       <c r="E20" s="1">
-        <v>23782501</v>
+        <v>2350505</v>
       </c>
       <c r="F20" s="2">
-        <v>7.5146683982753801E-2</v>
+        <v>7.4270009043574817E-3</v>
       </c>
       <c r="G20" s="2">
-        <v>0.62977782752622991</v>
+        <v>7.0377473363957027E-2</v>
       </c>
       <c r="H20" s="2">
-        <v>7.5146683982753801E-2</v>
+        <v>2.7593544676231031E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1">
-        <v>1311</v>
+        <v>46</v>
       </c>
       <c r="E21" s="1">
-        <v>23589530</v>
+        <v>943928</v>
       </c>
       <c r="F21" s="2">
-        <v>7.4536944462304036E-2</v>
+        <v>2.9825735787196153E-3</v>
       </c>
       <c r="G21" s="2">
-        <v>0.7063041853743196</v>
+        <v>5.3506119889152257E-2</v>
       </c>
       <c r="H21" s="2">
-        <v>7.4536944462304036E-2</v>
+        <v>1.1081158916550021E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1">
         <v>14</v>
       </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1">
-        <v>318</v>
-      </c>
       <c r="E22" s="1">
-        <v>23364635</v>
+        <v>583827</v>
       </c>
       <c r="F22" s="2">
-        <v>7.3826333181585435E-2</v>
+        <v>1.8447455576517879E-3</v>
       </c>
       <c r="G22" s="2">
-        <v>0.12177488079621721</v>
+        <v>4.3380138818940803E-2</v>
       </c>
       <c r="H22" s="2">
-        <v>7.3826333181585435E-2</v>
+        <v>6.853785211131197E-3</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="1">
-        <v>683</v>
+        <v>1963</v>
       </c>
       <c r="E23" s="1">
-        <v>22983723</v>
+        <v>85183148</v>
       </c>
       <c r="F23" s="2">
-        <v>7.2622747667629661E-2</v>
+        <v>0.26915718844759623</v>
       </c>
       <c r="G23" s="2">
-        <v>7.2622747667629661E-2</v>
+        <v>0.26915718844759623</v>
       </c>
       <c r="H23" s="2">
-        <v>9.9368491445335064E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1">
-        <v>1232</v>
+        <v>568</v>
       </c>
       <c r="E24" s="1">
-        <v>22351850</v>
+        <v>56977816</v>
       </c>
       <c r="F24" s="2">
-        <v>7.0626188910069443E-2</v>
+        <v>0.18003547789105498</v>
       </c>
       <c r="G24" s="2">
-        <v>1</v>
+        <v>0.29696448292168048</v>
       </c>
       <c r="H24" s="2">
-        <v>7.0626188910069443E-2</v>
+        <v>0.6688860101765669</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1">
-        <v>1194</v>
+        <v>482</v>
       </c>
       <c r="E25" s="1">
-        <v>21239025</v>
+        <v>10172761</v>
       </c>
       <c r="F25" s="2">
-        <v>6.7109943557946555E-2</v>
+        <v>3.2143350108513921E-2</v>
       </c>
       <c r="G25" s="2">
-        <v>0.63592671201036266</v>
+        <v>0.26938206888012145</v>
       </c>
       <c r="H25" s="2">
-        <v>9.1825413751277701E-2</v>
+        <v>0.11942222421740037</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1">
-        <v>497</v>
+        <v>398</v>
       </c>
       <c r="E26" s="1">
-        <v>21220053</v>
+        <v>7198478</v>
       </c>
       <c r="F26" s="2">
-        <v>6.7049996839621137E-2</v>
+        <v>2.2745368597810869E-2</v>
       </c>
       <c r="G26" s="2">
-        <v>6.7049996839621137E-2</v>
+        <v>0.21553270199639255</v>
       </c>
       <c r="H26" s="2">
-        <v>6.7049996839621137E-2</v>
+        <v>8.4505893113976022E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27" s="1">
-        <v>1237</v>
+        <v>328</v>
       </c>
       <c r="E27" s="1">
-        <v>20564746</v>
+        <v>5576848</v>
       </c>
       <c r="F27" s="2">
-        <v>6.4979392573035116E-2</v>
+        <v>1.7621428220516107E-2</v>
       </c>
       <c r="G27" s="2">
-        <v>0.5445693478372492</v>
+        <v>0.24950274809467674</v>
       </c>
       <c r="H27" s="2">
-        <v>8.891021645955656E-2</v>
+        <v>6.5468911761748932E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2130,30 +2251,30 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1">
-        <v>496</v>
+        <v>61</v>
       </c>
       <c r="E28" s="1">
-        <v>18454925</v>
+        <v>2729796</v>
       </c>
       <c r="F28" s="2">
-        <v>5.8312892193315695E-2</v>
+        <v>8.6254644685765137E-3</v>
       </c>
       <c r="G28" s="2">
-        <v>5.8312892193315695E-2</v>
+        <v>0.20283222500396406</v>
       </c>
       <c r="H28" s="2">
-        <v>0.21664995287565564</v>
+        <v>3.2046197682198831E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -2162,123 +2283,123 @@
         <v>9</v>
       </c>
       <c r="D29" s="1">
-        <v>986</v>
+        <v>126</v>
       </c>
       <c r="E29" s="1">
-        <v>17641496</v>
+        <v>2527449</v>
       </c>
       <c r="F29" s="2">
-        <v>5.5742662426252615E-2</v>
+        <v>7.9860991611238486E-3</v>
       </c>
       <c r="G29" s="2">
-        <v>1</v>
+        <v>0.14326727166448922</v>
       </c>
       <c r="H29" s="2">
-        <v>5.5742662426252615E-2</v>
+        <v>2.9670763048108999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D30" s="1">
-        <v>904</v>
+        <v>81</v>
       </c>
       <c r="E30" s="1">
-        <v>16775002</v>
+        <v>2663999</v>
       </c>
       <c r="F30" s="2">
-        <v>5.3004760689553336E-2</v>
+        <v>8.4175626013164948E-3</v>
       </c>
       <c r="G30" s="2">
-        <v>0.75049725190532324</v>
+        <v>8.4175626013164948E-3</v>
       </c>
       <c r="H30" s="2">
-        <v>7.2525527858671057E-2</v>
+        <v>3.1273779644771994E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31" s="1">
-        <v>868</v>
+        <v>12</v>
       </c>
       <c r="E31" s="1">
-        <v>16187480</v>
+        <v>1314040</v>
       </c>
       <c r="F31" s="2">
-        <v>5.1148339867079055E-2</v>
+        <v>4.1520338260764835E-3</v>
       </c>
       <c r="G31" s="2">
-        <v>0.72421208982701657</v>
+        <v>6.8486866737469372E-3</v>
       </c>
       <c r="H31" s="2">
-        <v>5.1148339867079055E-2</v>
+        <v>1.5426055867294316E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="1">
-        <v>860</v>
+        <v>28</v>
       </c>
       <c r="E32" s="1">
-        <v>15114047</v>
+        <v>570196</v>
       </c>
       <c r="F32" s="2">
-        <v>4.7756563265128761E-2</v>
+        <v>1.8016750475582986E-3</v>
       </c>
       <c r="G32" s="2">
-        <v>0.85673272833551073</v>
+        <v>1.5099202482705507E-2</v>
       </c>
       <c r="H32" s="2">
-        <v>6.5344507068062566E-2</v>
+        <v>6.693765297333224E-3</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D33" s="1">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="E33" s="1">
-        <v>14878041</v>
+        <v>375023</v>
       </c>
       <c r="F33" s="2">
-        <v>4.7010844036523086E-2</v>
+        <v>1.1849777644186486E-3</v>
       </c>
       <c r="G33" s="2">
-        <v>7.754333287278968E-2</v>
+        <v>1.1228723696980546E-2</v>
       </c>
       <c r="H33" s="2">
-        <v>4.7010844036523086E-2</v>
+        <v>4.4025491990504978E-3</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2286,108 +2407,108 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D34" s="1">
-        <v>428</v>
+        <v>12</v>
       </c>
       <c r="E34" s="1">
-        <v>14406881</v>
+        <v>229228</v>
       </c>
       <c r="F34" s="2">
-        <v>4.5522097683676752E-2</v>
+        <v>7.2430246406795856E-4</v>
       </c>
       <c r="G34" s="2">
-        <v>4.5522097683676752E-2</v>
+        <v>1.0255437469381729E-2</v>
       </c>
       <c r="H34" s="2">
-        <v>0.16912829988391601</v>
+        <v>2.6910017460261035E-3</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D35" s="1">
-        <v>743</v>
+        <v>5</v>
       </c>
       <c r="E35" s="1">
-        <v>13755781</v>
+        <v>93700</v>
       </c>
       <c r="F35" s="2">
-        <v>4.3464786472329764E-2</v>
+        <v>2.9606828521457984E-4</v>
       </c>
       <c r="G35" s="2">
-        <v>0.61542024485668967</v>
+        <v>5.3113409429676487E-3</v>
       </c>
       <c r="H35" s="2">
-        <v>5.9472140637198016E-2</v>
+        <v>1.0999828275893256E-3</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="E36" s="1">
-        <v>13567083</v>
+        <v>81812</v>
       </c>
       <c r="F36" s="2">
-        <v>4.2868548550414921E-2</v>
+        <v>2.5850521398052516E-4</v>
       </c>
       <c r="G36" s="2">
-        <v>7.0710709372407698E-2</v>
+        <v>6.0788828146954238E-3</v>
       </c>
       <c r="H36" s="2">
-        <v>4.2868548550414921E-2</v>
+        <v>9.6042470747852615E-4</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37" s="1">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="E37" s="1">
-        <v>13458394</v>
+        <v>18454925</v>
       </c>
       <c r="F37" s="2">
-        <v>4.2525118818806724E-2</v>
+        <v>5.8312892193315695E-2</v>
       </c>
       <c r="G37" s="2">
-        <v>1</v>
+        <v>5.8312892193315695E-2</v>
       </c>
       <c r="H37" s="2">
-        <v>4.2525118818806724E-2</v>
+        <v>0.21664995287565564</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -2396,71 +2517,71 @@
         <v>7</v>
       </c>
       <c r="D38" s="1">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="E38" s="1">
-        <v>12686777</v>
+        <v>10677858</v>
       </c>
       <c r="F38" s="2">
-        <v>4.0087004389431934E-2</v>
+        <v>3.3739328792153502E-2</v>
       </c>
       <c r="G38" s="2">
-        <v>6.612261466370821E-2</v>
+        <v>5.5652266132508996E-2</v>
       </c>
       <c r="H38" s="2">
-        <v>5.4850377886705895E-2</v>
+        <v>0.12535176558631056</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="1">
-        <v>725</v>
+        <v>147</v>
       </c>
       <c r="E39" s="1">
-        <v>12310815</v>
+        <v>3130903</v>
       </c>
       <c r="F39" s="2">
-        <v>3.889905962266732E-2</v>
+        <v>9.8928610713253338E-3</v>
       </c>
       <c r="G39" s="2">
-        <v>0.69783282551547787</v>
+        <v>8.2908575911984861E-2</v>
       </c>
       <c r="H39" s="2">
-        <v>3.889905962266732E-2</v>
+        <v>3.6754957682474942E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D40" s="1">
-        <v>392</v>
+        <v>109</v>
       </c>
       <c r="E40" s="1">
-        <v>11784520</v>
+        <v>1983549</v>
       </c>
       <c r="F40" s="2">
-        <v>3.7236100624086665E-2</v>
+        <v>6.2675128182400714E-3</v>
       </c>
       <c r="G40" s="2">
-        <v>3.7236100624086665E-2</v>
+        <v>5.939028715684655E-2</v>
       </c>
       <c r="H40" s="2">
-        <v>5.0949533929180231E-2</v>
+        <v>2.3285697307171602E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2468,129 +2589,129 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D41" s="1">
-        <v>248</v>
+        <v>72</v>
       </c>
       <c r="E41" s="1">
-        <v>11641522</v>
+        <v>1149852</v>
       </c>
       <c r="F41" s="2">
-        <v>3.6784263135835715E-2</v>
+        <v>3.6332413008597127E-3</v>
       </c>
       <c r="G41" s="2">
-        <v>3.6784263135835715E-2</v>
+        <v>5.1443258611703284E-2</v>
       </c>
       <c r="H41" s="2">
-        <v>0.13666461352191397</v>
+        <v>1.3498585424431603E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" s="1">
-        <v>679</v>
+        <v>16</v>
       </c>
       <c r="E42" s="1">
-        <v>11366887</v>
+        <v>799954</v>
       </c>
       <c r="F42" s="2">
-        <v>3.5916486043947704E-2</v>
+        <v>2.5276521774871292E-3</v>
       </c>
       <c r="G42" s="2">
-        <v>0.64432670562632555</v>
+        <v>5.943903856581996E-2</v>
       </c>
       <c r="H42" s="2">
-        <v>4.9143927361967876E-2</v>
+        <v>9.3909889312848594E-3</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D43" s="1">
-        <v>428</v>
+        <v>36</v>
       </c>
       <c r="E43" s="1">
-        <v>10728598</v>
+        <v>712811</v>
       </c>
       <c r="F43" s="2">
-        <v>3.3899654350230214E-2</v>
+        <v>2.2523023527437555E-3</v>
       </c>
       <c r="G43" s="2">
-        <v>0.79716777499603597</v>
+        <v>4.0405360180338447E-2</v>
       </c>
       <c r="H43" s="2">
-        <v>4.6384330275101165E-2</v>
+        <v>8.3679814228044269E-3</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D44" s="1">
-        <v>116</v>
+        <v>392</v>
       </c>
       <c r="E44" s="1">
-        <v>10677858</v>
+        <v>11784520</v>
       </c>
       <c r="F44" s="2">
-        <v>3.3739328792153502E-2</v>
+        <v>3.7236100624086665E-2</v>
       </c>
       <c r="G44" s="2">
-        <v>5.5652266132508996E-2</v>
+        <v>3.7236100624086665E-2</v>
       </c>
       <c r="H44" s="2">
-        <v>0.12535176558631056</v>
+        <v>5.0949533929180231E-2</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" s="1">
-        <v>482</v>
+        <v>119</v>
       </c>
       <c r="E45" s="1">
-        <v>10172761</v>
+        <v>6648728</v>
       </c>
       <c r="F45" s="2">
-        <v>3.2143350108513921E-2</v>
+        <v>2.1008297735519352E-2</v>
       </c>
       <c r="G45" s="2">
-        <v>0.26938206888012145</v>
+        <v>3.4652715937846738E-2</v>
       </c>
       <c r="H45" s="2">
-        <v>0.11942222421740037</v>
+        <v>2.8745302551303795E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2598,51 +2719,51 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D46" s="1">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="E46" s="1">
-        <v>9578531</v>
+        <v>1610039</v>
       </c>
       <c r="F46" s="2">
-        <v>3.0265733703785432E-2</v>
+        <v>5.0873157508921768E-3</v>
       </c>
       <c r="G46" s="2">
-        <v>3.0265733703785432E-2</v>
+        <v>4.2634997204562451E-2</v>
       </c>
       <c r="H46" s="2">
-        <v>4.14120974105186E-2</v>
+        <v>6.9608890865137827E-3</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D47" s="1">
-        <v>394</v>
+        <v>87</v>
       </c>
       <c r="E47" s="1">
-        <v>9489142</v>
+        <v>1407461</v>
       </c>
       <c r="F47" s="2">
-        <v>2.9983287087488247E-2</v>
+        <v>4.4472205419039254E-3</v>
       </c>
       <c r="G47" s="2">
-        <v>0.70507238828050356</v>
+        <v>4.2141390483452841E-2</v>
       </c>
       <c r="H47" s="2">
-        <v>2.9983287087488247E-2</v>
+        <v>6.085057513882444E-3</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2650,129 +2771,129 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D48" s="1">
-        <v>380</v>
+        <v>53</v>
       </c>
       <c r="E48" s="1">
-        <v>8905315</v>
+        <v>1058335</v>
       </c>
       <c r="F48" s="2">
-        <v>2.8138541529836459E-2</v>
+        <v>3.344070743143782E-3</v>
       </c>
       <c r="G48" s="2">
-        <v>0.6616922494615628</v>
+        <v>5.9991227501341157E-2</v>
       </c>
       <c r="H48" s="2">
-        <v>3.8501495923681038E-2</v>
+        <v>4.5756360879305189E-3</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49" s="1">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="E49" s="1">
-        <v>8268499</v>
+        <v>678261</v>
       </c>
       <c r="F49" s="2">
-        <v>2.612636414331343E-2</v>
+        <v>2.1431330970963303E-3</v>
       </c>
       <c r="G49" s="2">
-        <v>4.3094851688829774E-2</v>
+        <v>3.0344736565429707E-2</v>
       </c>
       <c r="H49" s="2">
-        <v>9.7067309604477167E-2</v>
+        <v>2.9324131854619206E-3</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="E50" s="1">
-        <v>8229313</v>
+        <v>381696</v>
       </c>
       <c r="F50" s="2">
-        <v>2.6002546301003734E-2</v>
+        <v>1.2060627555311022E-3</v>
       </c>
       <c r="G50" s="2">
-        <v>4.2890616934942942E-2</v>
+        <v>2.8361184848652819E-2</v>
       </c>
       <c r="H50" s="2">
-        <v>9.6607289037967933E-2</v>
+        <v>1.6502355040877673E-3</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D51" s="1">
-        <v>398</v>
+        <v>249</v>
       </c>
       <c r="E51" s="1">
-        <v>7198478</v>
+        <v>9578531</v>
       </c>
       <c r="F51" s="2">
-        <v>2.2745368597810869E-2</v>
+        <v>3.0265733703785432E-2</v>
       </c>
       <c r="G51" s="2">
-        <v>0.21553270199639255</v>
+        <v>3.0265733703785432E-2</v>
       </c>
       <c r="H51" s="2">
-        <v>8.4505893113976022E-2</v>
+        <v>4.14120974105186E-2</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52" s="1">
-        <v>336</v>
+        <v>75</v>
       </c>
       <c r="E52" s="1">
-        <v>7097421</v>
+        <v>5298584</v>
       </c>
       <c r="F52" s="2">
-        <v>2.2426054054599239E-2</v>
+        <v>1.6742184407101488E-2</v>
       </c>
       <c r="G52" s="2">
-        <v>0.18794484139489964</v>
+        <v>2.7615857683577928E-2</v>
       </c>
       <c r="H52" s="2">
-        <v>2.2426054054599239E-2</v>
+        <v>2.2908051009681473E-2</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2780,51 +2901,51 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D53" s="1">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="E53" s="1">
-        <v>6648728</v>
+        <v>1218724</v>
       </c>
       <c r="F53" s="2">
-        <v>2.1008297735519352E-2</v>
+        <v>3.8508593898596974E-3</v>
       </c>
       <c r="G53" s="2">
-        <v>3.4652715937846738E-2</v>
+        <v>3.2272692980190643E-2</v>
       </c>
       <c r="H53" s="2">
-        <v>2.8745302551303795E-2</v>
+        <v>5.2690665201727558E-3</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D54" s="1">
-        <v>328</v>
+        <v>40</v>
       </c>
       <c r="E54" s="1">
-        <v>5576848</v>
+        <v>914497</v>
       </c>
       <c r="F54" s="2">
-        <v>1.7621428220516107E-2</v>
+        <v>2.8895790674906899E-3</v>
       </c>
       <c r="G54" s="2">
-        <v>0.24950274809467674</v>
+        <v>5.1837837335337096E-2</v>
       </c>
       <c r="H54" s="2">
-        <v>6.5468911761748932E-2</v>
+        <v>3.9537627268343162E-3</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2835,74 +2956,74 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D55" s="1">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E55" s="1">
-        <v>5298584</v>
+        <v>771569</v>
       </c>
       <c r="F55" s="2">
-        <v>1.6742184407101488E-2</v>
+        <v>2.4379627615232461E-3</v>
       </c>
       <c r="G55" s="2">
-        <v>2.7615857683577928E-2</v>
+        <v>5.7329945905878518E-2</v>
       </c>
       <c r="H55" s="2">
-        <v>2.2908051009681473E-2</v>
+        <v>3.335823686005341E-3</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="1">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="E56" s="1">
-        <v>4645558</v>
+        <v>701707</v>
       </c>
       <c r="F56" s="2">
-        <v>1.4678787523211027E-2</v>
+        <v>2.2172165230850286E-3</v>
       </c>
       <c r="G56" s="2">
-        <v>0.13909463472986336</v>
+        <v>2.1010108764628107E-2</v>
       </c>
       <c r="H56" s="2">
-        <v>1.4678787523211027E-2</v>
+        <v>3.0337802986327208E-3</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D57" s="1">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="E57" s="1">
-        <v>4085155</v>
+        <v>673451</v>
       </c>
       <c r="F57" s="2">
-        <v>1.2908055877115977E-2</v>
+        <v>2.1279347144721882E-3</v>
       </c>
       <c r="G57" s="2">
-        <v>1.2908055877115977E-2</v>
+        <v>3.0129541850003466E-2</v>
       </c>
       <c r="H57" s="2">
-        <v>1.2908055877115977E-2</v>
+        <v>2.9116174926208582E-3</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2910,207 +3031,207 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D58" s="1">
-        <v>189</v>
+        <v>6204</v>
       </c>
       <c r="E58" s="1">
-        <v>3966518</v>
+        <v>185529966</v>
       </c>
       <c r="F58" s="2">
-        <v>1.2533192983273905E-2</v>
+        <v>0.58622773628110247</v>
       </c>
       <c r="G58" s="2">
-        <v>0.10503626548291478</v>
+        <v>0.58622773628110247</v>
       </c>
       <c r="H58" s="2">
-        <v>1.7148958415082169E-2</v>
+        <v>0.8021256103427763</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D59" s="1">
-        <v>193</v>
+        <v>1971</v>
       </c>
       <c r="E59" s="1">
-        <v>3812732</v>
+        <v>109698212</v>
       </c>
       <c r="F59" s="2">
-        <v>1.2047268145386932E-2</v>
+        <v>0.34661858610400692</v>
       </c>
       <c r="G59" s="2">
-        <v>0.10096390097491166</v>
+        <v>0.57173958377086409</v>
       </c>
       <c r="H59" s="2">
-        <v>1.2047268145386932E-2</v>
+        <v>0.4742724162090951</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D60" s="1">
-        <v>144</v>
+        <v>1194</v>
       </c>
       <c r="E60" s="1">
-        <v>3217755</v>
+        <v>21239025</v>
       </c>
       <c r="F60" s="2">
-        <v>1.0167291409718681E-2</v>
+        <v>6.7109943557946555E-2</v>
       </c>
       <c r="G60" s="2">
-        <v>8.5208479688980723E-2</v>
+        <v>0.63592671201036266</v>
       </c>
       <c r="H60" s="2">
-        <v>3.7774549022301922E-2</v>
+        <v>9.1825413751277701E-2</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="1">
-        <v>147</v>
+        <v>1237</v>
       </c>
       <c r="E61" s="1">
-        <v>3130903</v>
+        <v>20564746</v>
       </c>
       <c r="F61" s="2">
-        <v>9.8928610713253338E-3</v>
+        <v>6.4979392573035116E-2</v>
       </c>
       <c r="G61" s="2">
-        <v>8.2908575911984861E-2</v>
+        <v>0.5445693478372492</v>
       </c>
       <c r="H61" s="2">
-        <v>3.6754957682474942E-2</v>
+        <v>8.891021645955656E-2</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D62" s="1">
-        <v>194</v>
+        <v>743</v>
       </c>
       <c r="E62" s="1">
-        <v>3108690</v>
+        <v>13755781</v>
       </c>
       <c r="F62" s="2">
-        <v>9.8226736132733441E-3</v>
+        <v>4.3464786472329764E-2</v>
       </c>
       <c r="G62" s="2">
-        <v>9.3078614030516663E-2</v>
+        <v>0.61542024485668967</v>
       </c>
       <c r="H62" s="2">
-        <v>9.8226736132733441E-3</v>
+        <v>5.9472140637198016E-2</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D63" s="1">
-        <v>61</v>
+        <v>679</v>
       </c>
       <c r="E63" s="1">
-        <v>2729796</v>
+        <v>11366887</v>
       </c>
       <c r="F63" s="2">
-        <v>8.6254644685765137E-3</v>
+        <v>3.5916486043947704E-2</v>
       </c>
       <c r="G63" s="2">
-        <v>0.20283222500396406</v>
+        <v>0.64432670562632555</v>
       </c>
       <c r="H63" s="2">
-        <v>3.2046197682198831E-2</v>
+        <v>4.9143927361967876E-2</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="E64" s="1">
-        <v>2717999</v>
+        <v>8905315</v>
       </c>
       <c r="F64" s="2">
-        <v>8.5881889343110227E-3</v>
+        <v>2.8138541529836459E-2</v>
       </c>
       <c r="G64" s="2">
-        <v>0.12160062813592611</v>
+        <v>0.6616922494615628</v>
       </c>
       <c r="H64" s="2">
-        <v>8.5881889343110227E-3</v>
+        <v>3.8501495923681038E-2</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="1">
-        <v>81</v>
+        <v>7581</v>
       </c>
       <c r="E65" s="1">
-        <v>2663999</v>
+        <v>231297896</v>
       </c>
       <c r="F65" s="2">
-        <v>8.4175626013164948E-3</v>
+        <v>0.73084281155240371</v>
       </c>
       <c r="G65" s="2">
-        <v>8.4175626013164948E-3</v>
+        <v>0.73084281155240371</v>
       </c>
       <c r="H65" s="2">
-        <v>3.1273779644771994E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3118,285 +3239,285 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D66" s="1">
-        <v>116</v>
+        <v>2380</v>
       </c>
       <c r="E66" s="1">
-        <v>2662009</v>
+        <v>134889627</v>
       </c>
       <c r="F66" s="2">
-        <v>8.4112747049709547E-3</v>
+        <v>0.42621708174092093</v>
       </c>
       <c r="G66" s="2">
-        <v>7.9704347573016809E-2</v>
+        <v>0.70303551707831957</v>
       </c>
       <c r="H66" s="2">
-        <v>1.1509006549718032E-2</v>
+        <v>0.58318570697244909</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D67" s="1">
-        <v>126</v>
+        <v>1570</v>
       </c>
       <c r="E67" s="1">
-        <v>2527449</v>
+        <v>27590558</v>
       </c>
       <c r="F67" s="2">
-        <v>7.9860991611238486E-3</v>
+        <v>8.717918031134908E-2</v>
       </c>
       <c r="G67" s="2">
-        <v>0.14326727166448922</v>
+        <v>0.73061793111987849</v>
       </c>
       <c r="H67" s="2">
-        <v>2.9670763048108999E-2</v>
+        <v>0.11928581486102234</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68" s="1">
-        <v>125</v>
+        <v>1439</v>
       </c>
       <c r="E68" s="1">
-        <v>2431699</v>
+        <v>26200064</v>
       </c>
       <c r="F68" s="2">
-        <v>7.6835533947492915E-3</v>
+        <v>8.2785571195221411E-2</v>
       </c>
       <c r="G68" s="2">
-        <v>0.10879184497032685</v>
+        <v>0.78446729800360748</v>
       </c>
       <c r="H68" s="2">
-        <v>2.8546714427600164E-2</v>
+        <v>0.11327411296469381</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D69" s="1">
-        <v>117</v>
+        <v>904</v>
       </c>
       <c r="E69" s="1">
-        <v>2350505</v>
+        <v>16775002</v>
       </c>
       <c r="F69" s="2">
-        <v>7.4270009043574817E-3</v>
+        <v>5.3004760689553336E-2</v>
       </c>
       <c r="G69" s="2">
-        <v>7.0377473363957027E-2</v>
+        <v>0.75049725190532324</v>
       </c>
       <c r="H69" s="2">
-        <v>2.7593544676231031E-2</v>
+        <v>7.2525527858671057E-2</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="1">
-        <v>104</v>
+        <v>860</v>
       </c>
       <c r="E70" s="1">
-        <v>2269938</v>
+        <v>15114047</v>
       </c>
       <c r="F70" s="2">
-        <v>7.1724295752765531E-3</v>
+        <v>4.7756563265128761E-2</v>
       </c>
       <c r="G70" s="2">
-        <v>6.010960000629182E-2</v>
+        <v>0.85673272833551073</v>
       </c>
       <c r="H70" s="2">
-        <v>7.1724295752765531E-3</v>
+        <v>6.5344507068062566E-2</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D71" s="1">
-        <v>114</v>
+        <v>428</v>
       </c>
       <c r="E71" s="1">
-        <v>2202693</v>
+        <v>10728598</v>
       </c>
       <c r="F71" s="2">
-        <v>6.9599523944947556E-3</v>
+        <v>3.3899654350230214E-2</v>
       </c>
       <c r="G71" s="2">
-        <v>5.8328903770349209E-2</v>
+        <v>0.79716777499603597</v>
       </c>
       <c r="H71" s="2">
-        <v>2.5858318830856077E-2</v>
+        <v>4.6384330275101165E-2</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D72" s="1">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="E72" s="1">
-        <v>2194201</v>
+        <v>1421156</v>
       </c>
       <c r="F72" s="2">
-        <v>6.9331198237579123E-3</v>
+        <v>4.4904932757994821E-3</v>
       </c>
       <c r="G72" s="2">
-        <v>0.12437726369691096</v>
+        <v>4.4904932757994821E-3</v>
       </c>
       <c r="H72" s="2">
-        <v>6.9331198237579123E-3</v>
+        <v>6.1442668721897933E-3</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D73" s="1">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="E73" s="1">
-        <v>1983549</v>
+        <v>557325</v>
       </c>
       <c r="F73" s="2">
-        <v>6.2675128182400714E-3</v>
+        <v>1.7610059451143622E-3</v>
       </c>
       <c r="G73" s="2">
-        <v>5.939028715684655E-2</v>
+        <v>2.9047398103908646E-3</v>
       </c>
       <c r="H73" s="2">
-        <v>2.3285697307171602E-2</v>
+        <v>2.4095549922339113E-3</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B74" t="s">
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D74" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E74" s="1">
-        <v>1871365</v>
+        <v>292938</v>
       </c>
       <c r="F74" s="2">
-        <v>5.9130397711908457E-3</v>
+        <v>9.2560993953242894E-4</v>
       </c>
       <c r="G74" s="2">
-        <v>9.7534264841378018E-3</v>
+        <v>1.6605054355934439E-2</v>
       </c>
       <c r="H74" s="2">
-        <v>5.9130397711908457E-3</v>
+        <v>1.266496604880487E-3</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D75" s="1">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="E75" s="1">
-        <v>1768970</v>
+        <v>230532</v>
       </c>
       <c r="F75" s="2">
-        <v>5.5894974866172393E-3</v>
+        <v>7.2842277403508565E-4</v>
       </c>
       <c r="G75" s="2">
-        <v>7.9141994957911757E-2</v>
+        <v>6.1046540956847571E-3</v>
       </c>
       <c r="H75" s="2">
-        <v>5.5894974866172393E-3</v>
+        <v>9.9668870312594627E-4</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
       </c>
       <c r="D76" s="1">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="E76" s="1">
-        <v>1701229</v>
+        <v>189862</v>
       </c>
       <c r="F76" s="2">
-        <v>5.3754530713694178E-3</v>
+        <v>5.9991586731494731E-4</v>
       </c>
       <c r="G76" s="2">
-        <v>5.0937223547063822E-2</v>
+        <v>5.6847391721470955E-3</v>
       </c>
       <c r="H76" s="2">
-        <v>1.9971426742763723E-2</v>
+        <v>8.2085485118290919E-4</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3404,25 +3525,25 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D77" s="1">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="E77" s="1">
-        <v>1610039</v>
+        <v>99362</v>
       </c>
       <c r="F77" s="2">
-        <v>5.0873157508921768E-3</v>
+        <v>3.1395877220374689E-4</v>
       </c>
       <c r="G77" s="2">
-        <v>4.2634997204562451E-2</v>
+        <v>4.4453591089775564E-3</v>
       </c>
       <c r="H77" s="2">
-        <v>6.9608890865137827E-3</v>
+        <v>4.2958453889264952E-4</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3430,51 +3551,51 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D78" s="1">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="E78" s="1">
-        <v>1568147</v>
+        <v>51136</v>
       </c>
       <c r="F78" s="2">
-        <v>4.95494763345131E-3</v>
+        <v>1.6157681785200381E-4</v>
       </c>
       <c r="G78" s="2">
-        <v>7.0157369524222829E-2</v>
+        <v>3.799561819931858E-3</v>
       </c>
       <c r="H78" s="2">
-        <v>6.7797720044976114E-3</v>
+        <v>2.2108285844502451E-4</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D79" s="1">
-        <v>77</v>
+        <v>683</v>
       </c>
       <c r="E79" s="1">
-        <v>1489879</v>
+        <v>22983723</v>
       </c>
       <c r="F79" s="2">
-        <v>4.7076405625102779E-3</v>
+        <v>7.2622747667629661E-2</v>
       </c>
       <c r="G79" s="2">
-        <v>4.4609102996172705E-2</v>
+        <v>7.2622747667629661E-2</v>
       </c>
       <c r="H79" s="2">
-        <v>4.7076405625102779E-3</v>
+        <v>9.9368491445335064E-2</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3485,48 +3606,48 @@
         <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D80" s="1">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="E80" s="1">
-        <v>1481390</v>
+        <v>12686777</v>
       </c>
       <c r="F80" s="2">
-        <v>4.6808174710141568E-3</v>
+        <v>4.0087004389431934E-2</v>
       </c>
       <c r="G80" s="2">
-        <v>8.3971903516572521E-2</v>
+        <v>6.612261466370821E-2</v>
       </c>
       <c r="H80" s="2">
-        <v>6.4046842864493676E-3</v>
+        <v>5.4850377886705895E-2</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D81" s="1">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="E81" s="1">
-        <v>1481239</v>
+        <v>3966518</v>
       </c>
       <c r="F81" s="2">
-        <v>4.6803403492311534E-3</v>
+        <v>1.2533192983273905E-2</v>
       </c>
       <c r="G81" s="2">
-        <v>8.3963344151765817E-2</v>
+        <v>0.10503626548291478</v>
       </c>
       <c r="H81" s="2">
-        <v>4.6803403492311534E-3</v>
+        <v>1.7148958415082169E-2</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3534,51 +3655,51 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D82" s="1">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="E82" s="1">
-        <v>1421156</v>
+        <v>2662009</v>
       </c>
       <c r="F82" s="2">
-        <v>4.4904932757994821E-3</v>
+        <v>8.4112747049709547E-3</v>
       </c>
       <c r="G82" s="2">
-        <v>4.4904932757994821E-3</v>
+        <v>7.9704347573016809E-2</v>
       </c>
       <c r="H82" s="2">
-        <v>6.1442668721897933E-3</v>
+        <v>1.1509006549718032E-2</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B83" t="s">
         <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D83" s="1">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="E83" s="1">
-        <v>1418836</v>
+        <v>1568147</v>
       </c>
       <c r="F83" s="2">
-        <v>4.4831626629745318E-3</v>
+        <v>4.95494763345131E-3</v>
       </c>
       <c r="G83" s="2">
-        <v>0.1054238715258299</v>
+        <v>7.0157369524222829E-2</v>
       </c>
       <c r="H83" s="2">
-        <v>4.4831626629745318E-3</v>
+        <v>6.7797720044976114E-3</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3586,77 +3707,77 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D84" s="1">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E84" s="1">
-        <v>1407461</v>
+        <v>1481390</v>
       </c>
       <c r="F84" s="2">
-        <v>4.4472205419039254E-3</v>
+        <v>4.6808174710141568E-3</v>
       </c>
       <c r="G84" s="2">
-        <v>4.2141390483452841E-2</v>
+        <v>8.3971903516572521E-2</v>
       </c>
       <c r="H84" s="2">
-        <v>6.085057513882444E-3</v>
+        <v>6.4046842864493676E-3</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D85" s="1">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="E85" s="1">
-        <v>1348811</v>
+        <v>618882</v>
       </c>
       <c r="F85" s="2">
-        <v>4.2619013857904233E-3</v>
+        <v>1.9555104854874026E-3</v>
       </c>
       <c r="G85" s="2">
-        <v>6.0344490500786288E-2</v>
+        <v>4.5984832960009936E-2</v>
       </c>
       <c r="H85" s="2">
-        <v>4.2619013857904233E-3</v>
+        <v>2.6756923028819941E-3</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D86" s="1">
-        <v>12</v>
+        <v>820</v>
       </c>
       <c r="E86" s="1">
-        <v>1314040</v>
+        <v>26191401</v>
       </c>
       <c r="F86" s="2">
-        <v>4.1520338260764835E-3</v>
+        <v>8.2758198307763417E-2</v>
       </c>
       <c r="G86" s="2">
-        <v>6.8486866737469372E-3</v>
+        <v>8.2758198307763417E-2</v>
       </c>
       <c r="H86" s="2">
-        <v>1.5426055867294316E-2</v>
+        <v>8.2758198307763417E-2</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3664,25 +3785,25 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D87" s="1">
-        <v>28</v>
+        <v>213</v>
       </c>
       <c r="E87" s="1">
-        <v>1275739</v>
+        <v>14878041</v>
       </c>
       <c r="F87" s="2">
-        <v>4.0310123597797533E-3</v>
+        <v>4.7010844036523086E-2</v>
       </c>
       <c r="G87" s="2">
-        <v>9.4791325027339821E-2</v>
+        <v>7.754333287278968E-2</v>
       </c>
       <c r="H87" s="2">
-        <v>4.0310123597797533E-3</v>
+        <v>4.7010844036523086E-2</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3690,77 +3811,77 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D88" s="1">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="E88" s="1">
-        <v>1268604</v>
+        <v>3812732</v>
       </c>
       <c r="F88" s="2">
-        <v>4.0084675655961246E-3</v>
+        <v>1.2047268145386932E-2</v>
       </c>
       <c r="G88" s="2">
-        <v>7.1910228021478451E-2</v>
+        <v>0.10096390097491166</v>
       </c>
       <c r="H88" s="2">
-        <v>4.0084675655961246E-3</v>
+        <v>1.2047268145386932E-2</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D89" s="1">
-        <v>55</v>
+        <v>194</v>
       </c>
       <c r="E89" s="1">
-        <v>1218724</v>
+        <v>3108690</v>
       </c>
       <c r="F89" s="2">
-        <v>3.8508593898596974E-3</v>
+        <v>9.8226736132733441E-3</v>
       </c>
       <c r="G89" s="2">
-        <v>3.2272692980190643E-2</v>
+        <v>9.3078614030516663E-2</v>
       </c>
       <c r="H89" s="2">
-        <v>5.2690665201727558E-3</v>
+        <v>9.8226736132733441E-3</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
       </c>
       <c r="D90" s="1">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="E90" s="1">
-        <v>1149852</v>
+        <v>1768970</v>
       </c>
       <c r="F90" s="2">
-        <v>3.6332413008597127E-3</v>
+        <v>5.5894974866172393E-3</v>
       </c>
       <c r="G90" s="2">
-        <v>5.1443258611703284E-2</v>
+        <v>7.9141994957911757E-2</v>
       </c>
       <c r="H90" s="2">
-        <v>1.3498585424431603E-2</v>
+        <v>5.5894974866172393E-3</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3771,152 +3892,152 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D91" s="1">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="E91" s="1">
-        <v>1141729</v>
+        <v>1481239</v>
       </c>
       <c r="F91" s="2">
-        <v>3.6075746767316656E-3</v>
+        <v>4.6803403492311534E-3</v>
       </c>
       <c r="G91" s="2">
-        <v>8.4833970531699401E-2</v>
+        <v>8.3963344151765817E-2</v>
       </c>
       <c r="H91" s="2">
-        <v>3.6075746767316656E-3</v>
+        <v>4.6803403492311534E-3</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B92" t="s">
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D92" s="1">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="E92" s="1">
-        <v>1090709</v>
+        <v>1141729</v>
       </c>
       <c r="F92" s="2">
-        <v>3.4463643895209094E-3</v>
+        <v>3.6075746767316656E-3</v>
       </c>
       <c r="G92" s="2">
-        <v>4.8797258392482057E-2</v>
+        <v>8.4833970531699401E-2</v>
       </c>
       <c r="H92" s="2">
-        <v>1.280428142899814E-2</v>
+        <v>3.6075746767316656E-3</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D93" s="1">
-        <v>53</v>
+        <v>497</v>
       </c>
       <c r="E93" s="1">
-        <v>1058335</v>
+        <v>21220053</v>
       </c>
       <c r="F93" s="2">
-        <v>3.344070743143782E-3</v>
+        <v>6.7049996839621137E-2</v>
       </c>
       <c r="G93" s="2">
-        <v>5.9991227501341157E-2</v>
+        <v>6.7049996839621137E-2</v>
       </c>
       <c r="H93" s="2">
-        <v>4.5756360879305189E-3</v>
+        <v>6.7049996839621137E-2</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B94" t="s">
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D94" s="1">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="E94" s="1">
-        <v>1051214</v>
+        <v>13567083</v>
       </c>
       <c r="F94" s="2">
-        <v>3.3215701854168553E-3</v>
+        <v>4.2868548550414921E-2</v>
       </c>
       <c r="G94" s="2">
-        <v>2.7836907026101174E-2</v>
+        <v>7.0710709372407698E-2</v>
       </c>
       <c r="H94" s="2">
-        <v>1.2340633384434207E-2</v>
+        <v>4.2868548550414921E-2</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D95" s="1">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="E95" s="1">
-        <v>943928</v>
+        <v>2269938</v>
       </c>
       <c r="F95" s="2">
-        <v>2.9825735787196153E-3</v>
+        <v>7.1724295752765531E-3</v>
       </c>
       <c r="G95" s="2">
-        <v>5.3506119889152257E-2</v>
+        <v>6.010960000629182E-2</v>
       </c>
       <c r="H95" s="2">
-        <v>1.1081158916550021E-2</v>
+        <v>7.1724295752765531E-3</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B96" t="s">
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D96" s="1">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E96" s="1">
-        <v>914497</v>
+        <v>1489879</v>
       </c>
       <c r="F96" s="2">
-        <v>2.8895790674906899E-3</v>
+        <v>4.7076405625102779E-3</v>
       </c>
       <c r="G96" s="2">
-        <v>5.1837837335337096E-2</v>
+        <v>4.4609102996172705E-2</v>
       </c>
       <c r="H96" s="2">
-        <v>3.9537627268343162E-3</v>
+        <v>4.7076405625102779E-3</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3924,337 +4045,337 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D97" s="1">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="E97" s="1">
-        <v>800728</v>
+        <v>1348811</v>
       </c>
       <c r="F97" s="2">
-        <v>2.5300978215933843E-3</v>
+        <v>4.2619013857904233E-3</v>
       </c>
       <c r="G97" s="2">
-        <v>2.1203856578390263E-2</v>
+        <v>6.0344490500786288E-2</v>
       </c>
       <c r="H97" s="2">
-        <v>2.5300978215933843E-3</v>
+        <v>4.2619013857904233E-3</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
         <v>10</v>
       </c>
       <c r="D98" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E98" s="1">
-        <v>799954</v>
+        <v>1275739</v>
       </c>
       <c r="F98" s="2">
-        <v>2.5276521774871292E-3</v>
+        <v>4.0310123597797533E-3</v>
       </c>
       <c r="G98" s="2">
-        <v>5.943903856581996E-2</v>
+        <v>9.4791325027339821E-2</v>
       </c>
       <c r="H98" s="2">
-        <v>9.3909889312848594E-3</v>
+        <v>4.0310123597797533E-3</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B99" t="s">
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D99" s="1">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E99" s="1">
-        <v>788172</v>
+        <v>1268604</v>
       </c>
       <c r="F99" s="2">
-        <v>2.4904240394252493E-3</v>
+        <v>4.0084675655961246E-3</v>
       </c>
       <c r="G99" s="2">
-        <v>2.3598994231544598E-2</v>
+        <v>7.1910228021478451E-2</v>
       </c>
       <c r="H99" s="2">
-        <v>9.2526751887591664E-3</v>
+        <v>4.0084675655961246E-3</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D100" s="1">
-        <v>17</v>
+        <v>6914</v>
       </c>
       <c r="E100" s="1">
-        <v>771569</v>
+        <v>223545787</v>
       </c>
       <c r="F100" s="2">
-        <v>2.4379627615232461E-3</v>
+        <v>0.70634810911455415</v>
       </c>
       <c r="G100" s="2">
-        <v>5.7329945905878518E-2</v>
+        <v>0.70634810911455415</v>
       </c>
       <c r="H100" s="2">
-        <v>3.335823686005341E-3</v>
+        <v>0.70634810911455415</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D101" s="1">
-        <v>17</v>
+        <v>2235</v>
       </c>
       <c r="E101" s="1">
-        <v>760033</v>
+        <v>138186319</v>
       </c>
       <c r="F101" s="2">
-        <v>2.4015119212005632E-3</v>
+        <v>0.43663379409226166</v>
       </c>
       <c r="G101" s="2">
-        <v>5.6472785683046582E-2</v>
+        <v>0.72021765047444763</v>
       </c>
       <c r="H101" s="2">
-        <v>8.922339897558142E-3</v>
+        <v>0.43663379409226166</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D102" s="1">
-        <v>36</v>
+        <v>1381</v>
       </c>
       <c r="E102" s="1">
-        <v>712811</v>
+        <v>23782501</v>
       </c>
       <c r="F102" s="2">
-        <v>2.2523023527437555E-3</v>
+        <v>7.5146683982753801E-2</v>
       </c>
       <c r="G102" s="2">
-        <v>4.0405360180338447E-2</v>
+        <v>0.62977782752622991</v>
       </c>
       <c r="H102" s="2">
-        <v>8.3679814228044269E-3</v>
+        <v>7.5146683982753801E-2</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
       </c>
       <c r="D103" s="1">
-        <v>33</v>
+        <v>1311</v>
       </c>
       <c r="E103" s="1">
-        <v>701707</v>
+        <v>23589530</v>
       </c>
       <c r="F103" s="2">
-        <v>2.2172165230850286E-3</v>
+        <v>7.4536944462304036E-2</v>
       </c>
       <c r="G103" s="2">
-        <v>2.1010108764628107E-2</v>
+        <v>0.7063041853743196</v>
       </c>
       <c r="H103" s="2">
-        <v>3.0337802986327208E-3</v>
+        <v>7.4536944462304036E-2</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C104" t="s">
         <v>6</v>
       </c>
       <c r="D104" s="1">
-        <v>44</v>
+        <v>868</v>
       </c>
       <c r="E104" s="1">
-        <v>678261</v>
+        <v>16187480</v>
       </c>
       <c r="F104" s="2">
-        <v>2.1431330970963303E-3</v>
+        <v>5.1148339867079055E-2</v>
       </c>
       <c r="G104" s="2">
-        <v>3.0344736565429707E-2</v>
+        <v>0.72421208982701657</v>
       </c>
       <c r="H104" s="2">
-        <v>2.9324131854619206E-3</v>
+        <v>5.1148339867079055E-2</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D105" s="1">
-        <v>44</v>
+        <v>725</v>
       </c>
       <c r="E105" s="1">
-        <v>675360</v>
+        <v>12310815</v>
       </c>
       <c r="F105" s="2">
-        <v>2.1339666713182355E-3</v>
+        <v>3.889905962266732E-2</v>
       </c>
       <c r="G105" s="2">
-        <v>3.0214948650782822E-2</v>
+        <v>0.69783282551547787</v>
       </c>
       <c r="H105" s="2">
-        <v>7.9283287346929229E-3</v>
+        <v>3.889905962266732E-2</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D106" s="1">
-        <v>29</v>
+        <v>394</v>
       </c>
       <c r="E106" s="1">
-        <v>673451</v>
+        <v>9489142</v>
       </c>
       <c r="F106" s="2">
-        <v>2.1279347144721882E-3</v>
+        <v>2.9983287087488247E-2</v>
       </c>
       <c r="G106" s="2">
-        <v>3.0129541850003466E-2</v>
+        <v>0.70507238828050356</v>
       </c>
       <c r="H106" s="2">
-        <v>2.9116174926208582E-3</v>
+        <v>2.9983287087488247E-2</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D107" s="1">
-        <v>20</v>
+        <v>9544</v>
       </c>
       <c r="E107" s="1">
-        <v>618882</v>
+        <v>316481044</v>
       </c>
       <c r="F107" s="2">
-        <v>1.9555104854874026E-3</v>
+        <v>1</v>
       </c>
       <c r="G107" s="2">
-        <v>4.5984832960009936E-2</v>
+        <v>1</v>
       </c>
       <c r="H107" s="2">
-        <v>2.6756923028819941E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D108" s="1">
-        <v>14</v>
+        <v>2948</v>
       </c>
       <c r="E108" s="1">
-        <v>583827</v>
+        <v>191867443</v>
       </c>
       <c r="F108" s="2">
-        <v>1.8447455576517879E-3</v>
+        <v>0.60625255963197588</v>
       </c>
       <c r="G108" s="2">
-        <v>4.3380138818940803E-2</v>
+        <v>1</v>
       </c>
       <c r="H108" s="2">
-        <v>6.853785211131197E-3</v>
+        <v>0.60625255963197588</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="1">
-        <v>28</v>
+        <v>2052</v>
       </c>
       <c r="E109" s="1">
-        <v>570196</v>
+        <v>37763319</v>
       </c>
       <c r="F109" s="2">
-        <v>1.8016750475582986E-3</v>
+        <v>0.119322530419863</v>
       </c>
       <c r="G109" s="2">
-        <v>1.5099202482705507E-2</v>
+        <v>1</v>
       </c>
       <c r="H109" s="2">
-        <v>6.693765297333224E-3</v>
+        <v>0.119322530419863</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4262,103 +4383,103 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
       </c>
       <c r="D110" s="1">
-        <v>30</v>
+        <v>1837</v>
       </c>
       <c r="E110" s="1">
-        <v>564885</v>
+        <v>33398542</v>
       </c>
       <c r="F110" s="2">
-        <v>1.7848936317335961E-3</v>
+        <v>0.10553093979303228</v>
       </c>
       <c r="G110" s="2">
-        <v>1.6913462869127642E-2</v>
+        <v>1</v>
       </c>
       <c r="H110" s="2">
-        <v>1.7848936317335961E-3</v>
+        <v>0.10553093979303228</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D111" s="1">
-        <v>13</v>
+        <v>1232</v>
       </c>
       <c r="E111" s="1">
-        <v>557325</v>
+        <v>22351850</v>
       </c>
       <c r="F111" s="2">
-        <v>1.7610059451143622E-3</v>
+        <v>7.0626188910069443E-2</v>
       </c>
       <c r="G111" s="2">
-        <v>2.9047398103908646E-3</v>
+        <v>1</v>
       </c>
       <c r="H111" s="2">
-        <v>2.4095549922339113E-3</v>
+        <v>7.0626188910069443E-2</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D112" s="1">
-        <v>11</v>
+        <v>986</v>
       </c>
       <c r="E112" s="1">
-        <v>504170</v>
+        <v>17641496</v>
       </c>
       <c r="F112" s="2">
-        <v>1.5930495982565073E-3</v>
+        <v>5.5742662426252615E-2</v>
       </c>
       <c r="G112" s="2">
-        <v>3.7461379121461295E-2</v>
+        <v>1</v>
       </c>
       <c r="H112" s="2">
-        <v>5.9186589347461072E-3</v>
+        <v>5.5742662426252615E-2</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" s="1">
-        <v>21</v>
+        <v>489</v>
       </c>
       <c r="E113" s="1">
-        <v>422904</v>
+        <v>13458394</v>
       </c>
       <c r="F113" s="2">
-        <v>1.3362696060873712E-3</v>
+        <v>4.2525118818806724E-2</v>
       </c>
       <c r="G113" s="2">
-        <v>2.3972116650424657E-2</v>
+        <v>1</v>
       </c>
       <c r="H113" s="2">
-        <v>4.9646439457719967E-3</v>
+        <v>4.2525118818806724E-2</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -4369,100 +4490,100 @@
         <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D114" s="1">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="E114" s="1">
-        <v>386638</v>
+        <v>4085155</v>
       </c>
       <c r="F114" s="2">
-        <v>1.2216782247470089E-3</v>
+        <v>1.2908055877115977E-2</v>
       </c>
       <c r="G114" s="2">
-        <v>2.1916395298902089E-2</v>
+        <v>1.2908055877115977E-2</v>
       </c>
       <c r="H114" s="2">
-        <v>1.2216782247470089E-3</v>
+        <v>1.2908055877115977E-2</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D115" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E115" s="1">
-        <v>381696</v>
+        <v>1871365</v>
       </c>
       <c r="F115" s="2">
-        <v>1.2060627555311022E-3</v>
+        <v>5.9130397711908457E-3</v>
       </c>
       <c r="G115" s="2">
-        <v>2.8361184848652819E-2</v>
+        <v>9.7534264841378018E-3</v>
       </c>
       <c r="H115" s="2">
-        <v>1.6502355040877673E-3</v>
+        <v>5.9130397711908457E-3</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B116" t="s">
         <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D116" s="1">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E116" s="1">
-        <v>375023</v>
+        <v>800728</v>
       </c>
       <c r="F116" s="2">
-        <v>1.1849777644186486E-3</v>
+        <v>2.5300978215933843E-3</v>
       </c>
       <c r="G116" s="2">
-        <v>1.1228723696980546E-2</v>
+        <v>2.1203856578390263E-2</v>
       </c>
       <c r="H116" s="2">
-        <v>4.4025491990504978E-3</v>
+        <v>2.5300978215933843E-3</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D117" s="1">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E117" s="1">
-        <v>354107</v>
+        <v>564885</v>
       </c>
       <c r="F117" s="2">
-        <v>1.1188884981054347E-3</v>
+        <v>1.7848936317335961E-3</v>
       </c>
       <c r="G117" s="2">
-        <v>2.0072390686141358E-2</v>
+        <v>1.6913462869127642E-2</v>
       </c>
       <c r="H117" s="2">
-        <v>4.157007674804411E-3</v>
+        <v>1.7848936317335961E-3</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -4473,126 +4594,126 @@
         <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D118" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E118" s="1">
-        <v>328590</v>
+        <v>386638</v>
       </c>
       <c r="F118" s="2">
-        <v>1.0382612362717055E-3</v>
+        <v>1.2216782247470089E-3</v>
       </c>
       <c r="G118" s="2">
-        <v>1.4700796578359286E-2</v>
+        <v>2.1916395298902089E-2</v>
       </c>
       <c r="H118" s="2">
-        <v>1.0382612362717055E-3</v>
+        <v>1.2216782247470089E-3</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B119" t="s">
         <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D119" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E119" s="1">
-        <v>292938</v>
+        <v>328590</v>
       </c>
       <c r="F119" s="2">
-        <v>9.2560993953242894E-4</v>
+        <v>1.0382612362717055E-3</v>
       </c>
       <c r="G119" s="2">
-        <v>1.6605054355934439E-2</v>
+        <v>1.4700796578359286E-2</v>
       </c>
       <c r="H119" s="2">
-        <v>1.266496604880487E-3</v>
+        <v>1.0382612362717055E-3</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B120" t="s">
         <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D120" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E120" s="1">
-        <v>230532</v>
+        <v>132948</v>
       </c>
       <c r="F120" s="2">
-        <v>7.2842277403508565E-4</v>
+        <v>4.2008203183252897E-4</v>
       </c>
       <c r="G120" s="2">
-        <v>6.1046540956847571E-3</v>
+        <v>9.8784446346272814E-3</v>
       </c>
       <c r="H120" s="2">
-        <v>9.9668870312594627E-4</v>
+        <v>4.2008203183252897E-4</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D121" s="1">
-        <v>12</v>
+        <v>1179</v>
       </c>
       <c r="E121" s="1">
-        <v>229228</v>
+        <v>41438648</v>
       </c>
       <c r="F121" s="2">
-        <v>7.2430246406795856E-4</v>
+        <v>0.13093563986094536</v>
       </c>
       <c r="G121" s="2">
-        <v>1.0255437469381729E-2</v>
+        <v>0.13093563986094536</v>
       </c>
       <c r="H121" s="2">
-        <v>2.6910017460261035E-3</v>
+        <v>0.13093563986094536</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C122" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D122" s="1">
-        <v>9</v>
+        <v>318</v>
       </c>
       <c r="E122" s="1">
-        <v>189862</v>
+        <v>23364635</v>
       </c>
       <c r="F122" s="2">
-        <v>5.9991586731494731E-4</v>
+        <v>7.3826333181585435E-2</v>
       </c>
       <c r="G122" s="2">
-        <v>5.6847391721470955E-3</v>
+        <v>0.12177488079621721</v>
       </c>
       <c r="H122" s="2">
-        <v>8.2085485118290919E-4</v>
+        <v>7.3826333181585435E-2</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4600,146 +4721,149 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C123" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D123" s="1">
-        <v>4</v>
+        <v>336</v>
       </c>
       <c r="E123" s="1">
-        <v>132948</v>
+        <v>7097421</v>
       </c>
       <c r="F123" s="2">
-        <v>4.2008203183252897E-4</v>
+        <v>2.2426054054599239E-2</v>
       </c>
       <c r="G123" s="2">
-        <v>9.8784446346272814E-3</v>
+        <v>0.18794484139489964</v>
       </c>
       <c r="H123" s="2">
-        <v>4.2008203183252897E-4</v>
+        <v>2.2426054054599239E-2</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D124" s="1">
-        <v>6</v>
+        <v>225</v>
       </c>
       <c r="E124" s="1">
-        <v>99362</v>
+        <v>4645558</v>
       </c>
       <c r="F124" s="2">
-        <v>3.1395877220374689E-4</v>
+        <v>1.4678787523211027E-2</v>
       </c>
       <c r="G124" s="2">
-        <v>4.4453591089775564E-3</v>
+        <v>0.13909463472986336</v>
       </c>
       <c r="H124" s="2">
-        <v>4.2958453889264952E-4</v>
+        <v>1.4678787523211027E-2</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D125" s="1">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="E125" s="1">
-        <v>93700</v>
+        <v>2717999</v>
       </c>
       <c r="F125" s="2">
-        <v>2.9606828521457984E-4</v>
+        <v>8.5881889343110227E-3</v>
       </c>
       <c r="G125" s="2">
-        <v>5.3113409429676487E-3</v>
+        <v>0.12160062813592611</v>
       </c>
       <c r="H125" s="2">
-        <v>1.0999828275893256E-3</v>
+        <v>8.5881889343110227E-3</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D126" s="1">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="E126" s="1">
-        <v>81812</v>
+        <v>2194201</v>
       </c>
       <c r="F126" s="2">
-        <v>2.5850521398052516E-4</v>
+        <v>6.9331198237579123E-3</v>
       </c>
       <c r="G126" s="2">
-        <v>6.0788828146954238E-3</v>
+        <v>0.12437726369691096</v>
       </c>
       <c r="H126" s="2">
-        <v>9.6042470747852615E-4</v>
+        <v>6.9331198237579123E-3</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C127" t="s">
         <v>10</v>
       </c>
       <c r="D127" s="1">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E127" s="1">
-        <v>51136</v>
+        <v>1418836</v>
       </c>
       <c r="F127" s="2">
-        <v>1.6157681785200381E-4</v>
+        <v>4.4831626629745318E-3</v>
       </c>
       <c r="G127" s="2">
-        <v>3.799561819931858E-3</v>
+        <v>0.1054238715258299</v>
       </c>
       <c r="H127" s="2">
-        <v>2.2108285844502451E-4</v>
+        <v>4.4831626629745318E-3</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H127">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H127">
     <sortCondition descending="1" ref="F2:F127"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="A2:H61"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4785,207 +4909,207 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="6">
-        <v>380</v>
+        <v>53</v>
       </c>
       <c r="E2" s="7">
-        <v>8905315</v>
+        <v>1058335</v>
       </c>
       <c r="F2" s="8">
-        <v>2.8138541529836459E-2</v>
+        <v>3.344070743143782E-3</v>
       </c>
       <c r="G2" s="8">
-        <v>0.6616922494615628</v>
+        <v>5.9991227501341157E-2</v>
       </c>
       <c r="H2" s="17">
-        <v>3.8501495923681038E-2</v>
+        <v>4.5756360879305189E-3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="9">
-        <v>679</v>
+        <v>114</v>
       </c>
       <c r="E3" s="10">
-        <v>11366887</v>
+        <v>2202693</v>
       </c>
       <c r="F3" s="11">
-        <v>3.5916486043947704E-2</v>
+        <v>6.9599523944947556E-3</v>
       </c>
       <c r="G3" s="11">
-        <v>0.64432670562632555</v>
+        <v>5.8328903770349209E-2</v>
       </c>
       <c r="H3" s="18">
-        <v>4.9143927361967876E-2</v>
+        <v>2.5858318830856077E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" s="9">
-        <v>1194</v>
+        <v>17</v>
       </c>
       <c r="E4" s="10">
-        <v>21239025</v>
+        <v>760033</v>
       </c>
       <c r="F4" s="11">
-        <v>6.7109943557946555E-2</v>
+        <v>2.4015119212005632E-3</v>
       </c>
       <c r="G4" s="11">
-        <v>0.63592671201036266</v>
+        <v>5.6472785683046582E-2</v>
       </c>
       <c r="H4" s="18">
-        <v>9.1825413751277701E-2</v>
+        <v>8.922339897558142E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="9">
-        <v>743</v>
+        <v>107</v>
       </c>
       <c r="E5" s="10">
-        <v>13755781</v>
+        <v>1701229</v>
       </c>
       <c r="F5" s="11">
-        <v>4.3464786472329764E-2</v>
+        <v>5.3754530713694178E-3</v>
       </c>
       <c r="G5" s="11">
-        <v>0.61542024485668967</v>
+        <v>5.0937223547063822E-2</v>
       </c>
       <c r="H5" s="18">
-        <v>5.9472140637198016E-2</v>
+        <v>1.9971426742763723E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="9">
-        <v>1971</v>
+        <v>75</v>
       </c>
       <c r="E6" s="10">
-        <v>109698212</v>
+        <v>1090709</v>
       </c>
       <c r="F6" s="11">
-        <v>0.34661858610400692</v>
+        <v>3.4463643895209094E-3</v>
       </c>
       <c r="G6" s="11">
-        <v>0.57173958377086409</v>
+        <v>4.8797258392482057E-2</v>
       </c>
       <c r="H6" s="18">
-        <v>0.4742724162090951</v>
+        <v>1.280428142899814E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="9">
-        <v>1237</v>
+        <v>94</v>
       </c>
       <c r="E7" s="10">
-        <v>20564746</v>
+        <v>8229313</v>
       </c>
       <c r="F7" s="11">
-        <v>6.4979392573035116E-2</v>
+        <v>2.6002546301003734E-2</v>
       </c>
       <c r="G7" s="11">
-        <v>0.5445693478372492</v>
+        <v>4.2890616934942942E-2</v>
       </c>
       <c r="H7" s="18">
-        <v>8.891021645955656E-2</v>
+        <v>9.6607289037967933E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="9">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="E8" s="10">
-        <v>28488107</v>
+        <v>1610039</v>
       </c>
       <c r="F8" s="11">
-        <v>9.0015207988254742E-2</v>
+        <v>5.0873157508921768E-3</v>
       </c>
       <c r="G8" s="11">
-        <v>0.14847806670358346</v>
+        <v>4.2634997204562451E-2</v>
       </c>
       <c r="H8" s="18">
-        <v>0.33443360181992804</v>
+        <v>6.9608890865137827E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="9">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="E9" s="10">
-        <v>2431699</v>
+        <v>1407461</v>
       </c>
       <c r="F9" s="11">
-        <v>7.6835533947492915E-3</v>
+        <v>4.4472205419039254E-3</v>
       </c>
       <c r="G9" s="11">
-        <v>0.10879184497032685</v>
+        <v>4.2141390483452841E-2</v>
       </c>
       <c r="H9" s="18">
-        <v>2.8546714427600164E-2</v>
+        <v>6.085057513882444E-3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4993,51 +5117,51 @@
         <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="9">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="E10" s="10">
-        <v>3966518</v>
+        <v>6648728</v>
       </c>
       <c r="F10" s="11">
-        <v>1.2533192983273905E-2</v>
+        <v>2.1008297735519352E-2</v>
       </c>
       <c r="G10" s="11">
-        <v>0.10503626548291478</v>
+        <v>3.4652715937846738E-2</v>
       </c>
       <c r="H10" s="18">
-        <v>1.7148958415082169E-2</v>
+        <v>2.8745302551303795E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" s="9">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="E11" s="10">
-        <v>3217755</v>
+        <v>678261</v>
       </c>
       <c r="F11" s="11">
-        <v>1.0167291409718681E-2</v>
+        <v>2.1431330970963303E-3</v>
       </c>
       <c r="G11" s="11">
-        <v>8.5208479688980723E-2</v>
+        <v>3.0344736565429707E-2</v>
       </c>
       <c r="H11" s="18">
-        <v>3.7774549022301922E-2</v>
+        <v>2.9324131854619206E-3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5045,25 +5169,25 @@
         <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="9">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E12" s="10">
-        <v>1481390</v>
+        <v>381696</v>
       </c>
       <c r="F12" s="11">
-        <v>4.6808174710141568E-3</v>
+        <v>1.2060627555311022E-3</v>
       </c>
       <c r="G12" s="11">
-        <v>8.3971903516572521E-2</v>
+        <v>2.8361184848652819E-2</v>
       </c>
       <c r="H12" s="18">
-        <v>6.4046842864493676E-3</v>
+        <v>1.6502355040877673E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5071,25 +5195,25 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="9">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="E13" s="10">
-        <v>3130903</v>
+        <v>422904</v>
       </c>
       <c r="F13" s="11">
-        <v>9.8928610713253338E-3</v>
+        <v>1.3362696060873712E-3</v>
       </c>
       <c r="G13" s="11">
-        <v>8.2908575911984861E-2</v>
+        <v>2.3972116650424657E-2</v>
       </c>
       <c r="H13" s="18">
-        <v>3.6754957682474942E-2</v>
+        <v>4.9646439457719967E-3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5097,103 +5221,103 @@
         <v>16</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" s="9">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="E14" s="10">
-        <v>2662009</v>
+        <v>771569</v>
       </c>
       <c r="F14" s="11">
-        <v>8.4112747049709547E-3</v>
+        <v>2.4379627615232461E-3</v>
       </c>
       <c r="G14" s="11">
-        <v>7.9704347573016809E-2</v>
+        <v>5.7329945905878518E-2</v>
       </c>
       <c r="H14" s="18">
-        <v>1.1509006549718032E-2</v>
+        <v>3.335823686005341E-3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D15" s="9">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="E15" s="10">
-        <v>2350505</v>
+        <v>914497</v>
       </c>
       <c r="F15" s="11">
-        <v>7.4270009043574817E-3</v>
+        <v>2.8895790674906899E-3</v>
       </c>
       <c r="G15" s="11">
-        <v>7.0377473363957027E-2</v>
+        <v>5.1837837335337096E-2</v>
       </c>
       <c r="H15" s="18">
-        <v>2.7593544676231031E-2</v>
+        <v>3.9537627268343162E-3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" s="9">
         <v>82</v>
       </c>
       <c r="E16" s="10">
-        <v>1568147</v>
+        <v>8268499</v>
       </c>
       <c r="F16" s="11">
-        <v>4.95494763345131E-3</v>
+        <v>2.612636414331343E-2</v>
       </c>
       <c r="G16" s="11">
-        <v>7.0157369524222829E-2</v>
+        <v>4.3094851688829774E-2</v>
       </c>
       <c r="H16" s="18">
-        <v>6.7797720044976114E-3</v>
+        <v>9.7067309604477167E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D17" s="9">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="E17" s="10">
-        <v>12686777</v>
+        <v>504170</v>
       </c>
       <c r="F17" s="11">
-        <v>4.0087004389431934E-2</v>
+        <v>1.5930495982565073E-3</v>
       </c>
       <c r="G17" s="11">
-        <v>6.612261466370821E-2</v>
+        <v>3.7461379121461295E-2</v>
       </c>
       <c r="H17" s="18">
-        <v>5.4850377886705895E-2</v>
+        <v>5.9186589347461072E-3</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5201,25 +5325,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="9">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E18" s="10">
-        <v>1058335</v>
+        <v>1218724</v>
       </c>
       <c r="F18" s="11">
-        <v>3.344070743143782E-3</v>
+        <v>3.8508593898596974E-3</v>
       </c>
       <c r="G18" s="11">
-        <v>5.9991227501341157E-2</v>
+        <v>3.2272692980190643E-2</v>
       </c>
       <c r="H18" s="18">
-        <v>4.5756360879305189E-3</v>
+        <v>5.2690665201727558E-3</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5227,51 +5351,51 @@
         <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D19" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E19" s="10">
-        <v>799954</v>
+        <v>675360</v>
       </c>
       <c r="F19" s="11">
-        <v>2.5276521774871292E-3</v>
+        <v>2.1339666713182355E-3</v>
       </c>
       <c r="G19" s="11">
-        <v>5.943903856581996E-2</v>
+        <v>3.0214948650782822E-2</v>
       </c>
       <c r="H19" s="18">
-        <v>9.3909889312848594E-3</v>
+        <v>7.9283287346929229E-3</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="9">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="E20" s="10">
-        <v>1983549</v>
+        <v>673451</v>
       </c>
       <c r="F20" s="11">
-        <v>6.2675128182400714E-3</v>
+        <v>2.1279347144721882E-3</v>
       </c>
       <c r="G20" s="11">
-        <v>5.939028715684655E-2</v>
+        <v>3.0129541850003466E-2</v>
       </c>
       <c r="H20" s="18">
-        <v>2.3285697307171602E-2</v>
+        <v>2.9116174926208582E-3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -5279,25 +5403,25 @@
         <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="9">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="E21" s="10">
-        <v>2202693</v>
+        <v>1051214</v>
       </c>
       <c r="F21" s="11">
-        <v>6.9599523944947556E-3</v>
+        <v>3.3215701854168553E-3</v>
       </c>
       <c r="G21" s="11">
-        <v>5.8328903770349209E-2</v>
+        <v>2.7836907026101174E-2</v>
       </c>
       <c r="H21" s="18">
-        <v>2.5858318830856077E-2</v>
+        <v>1.2340633384434207E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -5308,22 +5432,22 @@
         <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D22" s="9">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E22" s="10">
-        <v>771569</v>
+        <v>5298584</v>
       </c>
       <c r="F22" s="11">
-        <v>2.4379627615232461E-3</v>
+        <v>1.6742184407101488E-2</v>
       </c>
       <c r="G22" s="11">
-        <v>5.7329945905878518E-2</v>
+        <v>2.7615857683577928E-2</v>
       </c>
       <c r="H22" s="18">
-        <v>3.335823686005341E-3</v>
+        <v>2.2908051009681473E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -5331,51 +5455,51 @@
         <v>3</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D23" s="9">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E23" s="10">
-        <v>760033</v>
+        <v>788172</v>
       </c>
       <c r="F23" s="11">
-        <v>2.4015119212005632E-3</v>
+        <v>2.4904240394252493E-3</v>
       </c>
       <c r="G23" s="11">
-        <v>5.6472785683046582E-2</v>
+        <v>2.3598994231544598E-2</v>
       </c>
       <c r="H23" s="18">
-        <v>8.922339897558142E-3</v>
+        <v>9.2526751887591664E-3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D24" s="9">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="E24" s="10">
-        <v>10677858</v>
+        <v>701707</v>
       </c>
       <c r="F24" s="11">
-        <v>3.3739328792153502E-2</v>
+        <v>2.2172165230850286E-3</v>
       </c>
       <c r="G24" s="11">
-        <v>5.5652266132508996E-2</v>
+        <v>2.1010108764628107E-2</v>
       </c>
       <c r="H24" s="18">
-        <v>0.12535176558631056</v>
+        <v>3.0337802986327208E-3</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -5383,25 +5507,25 @@
         <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E25" s="10">
-        <v>943928</v>
+        <v>354107</v>
       </c>
       <c r="F25" s="11">
-        <v>2.9825735787196153E-3</v>
+        <v>1.1188884981054347E-3</v>
       </c>
       <c r="G25" s="11">
-        <v>5.3506119889152257E-2</v>
+        <v>2.0072390686141358E-2</v>
       </c>
       <c r="H25" s="18">
-        <v>1.1081158916550021E-2</v>
+        <v>4.157007674804411E-3</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -5409,103 +5533,103 @@
         <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" s="9">
-        <v>40</v>
+        <v>380</v>
       </c>
       <c r="E26" s="10">
-        <v>914497</v>
+        <v>8905315</v>
       </c>
       <c r="F26" s="11">
-        <v>2.8895790674906899E-3</v>
+        <v>2.8138541529836459E-2</v>
       </c>
       <c r="G26" s="11">
-        <v>5.1837837335337096E-2</v>
+        <v>0.6616922494615628</v>
       </c>
       <c r="H26" s="18">
-        <v>3.9537627268343162E-3</v>
+        <v>3.8501495923681038E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D27" s="9">
-        <v>72</v>
+        <v>679</v>
       </c>
       <c r="E27" s="10">
-        <v>1149852</v>
+        <v>11366887</v>
       </c>
       <c r="F27" s="11">
-        <v>3.6332413008597127E-3</v>
+        <v>3.5916486043947704E-2</v>
       </c>
       <c r="G27" s="11">
-        <v>5.1443258611703284E-2</v>
+        <v>0.64432670562632555</v>
       </c>
       <c r="H27" s="18">
-        <v>1.3498585424431603E-2</v>
+        <v>4.9143927361967876E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="9">
-        <v>107</v>
+        <v>1194</v>
       </c>
       <c r="E28" s="10">
-        <v>1701229</v>
+        <v>21239025</v>
       </c>
       <c r="F28" s="11">
-        <v>5.3754530713694178E-3</v>
+        <v>6.7109943557946555E-2</v>
       </c>
       <c r="G28" s="11">
-        <v>5.0937223547063822E-2</v>
+        <v>0.63592671201036266</v>
       </c>
       <c r="H28" s="18">
-        <v>1.9971426742763723E-2</v>
+        <v>9.1825413751277701E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="9">
-        <v>75</v>
+        <v>743</v>
       </c>
       <c r="E29" s="10">
-        <v>1090709</v>
+        <v>13755781</v>
       </c>
       <c r="F29" s="11">
-        <v>3.4463643895209094E-3</v>
+        <v>4.3464786472329764E-2</v>
       </c>
       <c r="G29" s="11">
-        <v>4.8797258392482057E-2</v>
+        <v>0.61542024485668967</v>
       </c>
       <c r="H29" s="18">
-        <v>1.280428142899814E-2</v>
+        <v>5.9472140637198016E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -5513,51 +5637,51 @@
         <v>16</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D30" s="9">
-        <v>20</v>
+        <v>1971</v>
       </c>
       <c r="E30" s="10">
-        <v>618882</v>
+        <v>109698212</v>
       </c>
       <c r="F30" s="11">
-        <v>1.9555104854874026E-3</v>
+        <v>0.34661858610400692</v>
       </c>
       <c r="G30" s="11">
-        <v>4.5984832960009936E-2</v>
+        <v>0.57173958377086409</v>
       </c>
       <c r="H30" s="18">
-        <v>2.6756923028819941E-3</v>
+        <v>0.4742724162090951</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D31" s="9">
-        <v>14</v>
+        <v>1237</v>
       </c>
       <c r="E31" s="10">
-        <v>583827</v>
+        <v>20564746</v>
       </c>
       <c r="F31" s="11">
-        <v>1.8447455576517879E-3</v>
+        <v>6.4979392573035116E-2</v>
       </c>
       <c r="G31" s="11">
-        <v>4.3380138818940803E-2</v>
+        <v>0.5445693478372492</v>
       </c>
       <c r="H31" s="18">
-        <v>6.853785211131197E-3</v>
+        <v>8.891021645955656E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -5565,25 +5689,25 @@
         <v>3</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="9">
-        <v>82</v>
+        <v>264</v>
       </c>
       <c r="E32" s="10">
-        <v>8268499</v>
+        <v>28488107</v>
       </c>
       <c r="F32" s="11">
-        <v>2.612636414331343E-2</v>
+        <v>9.0015207988254742E-2</v>
       </c>
       <c r="G32" s="11">
-        <v>4.3094851688829774E-2</v>
+        <v>0.14847806670358346</v>
       </c>
       <c r="H32" s="18">
-        <v>9.7067309604477167E-2</v>
+        <v>0.33443360181992804</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -5591,77 +5715,77 @@
         <v>3</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="9">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="E33" s="10">
-        <v>8229313</v>
+        <v>2431699</v>
       </c>
       <c r="F33" s="11">
-        <v>2.6002546301003734E-2</v>
+        <v>7.6835533947492915E-3</v>
       </c>
       <c r="G33" s="11">
-        <v>4.2890616934942942E-2</v>
+        <v>0.10879184497032685</v>
       </c>
       <c r="H33" s="18">
-        <v>9.6607289037967933E-2</v>
+        <v>2.8546714427600164E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="9">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="E34" s="10">
-        <v>1610039</v>
+        <v>3217755</v>
       </c>
       <c r="F34" s="11">
-        <v>5.0873157508921768E-3</v>
+        <v>1.0167291409718681E-2</v>
       </c>
       <c r="G34" s="11">
-        <v>4.2634997204562451E-2</v>
+        <v>8.5208479688980723E-2</v>
       </c>
       <c r="H34" s="18">
-        <v>6.9608890865137827E-3</v>
+        <v>3.7774549022301922E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="9">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="E35" s="10">
-        <v>1407461</v>
+        <v>2350505</v>
       </c>
       <c r="F35" s="11">
-        <v>4.4472205419039254E-3</v>
+        <v>7.4270009043574817E-3</v>
       </c>
       <c r="G35" s="11">
-        <v>4.2141390483452841E-2</v>
+        <v>7.0377473363957027E-2</v>
       </c>
       <c r="H35" s="18">
-        <v>6.085057513882444E-3</v>
+        <v>2.7593544676231031E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -5669,25 +5793,25 @@
         <v>3</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="9">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E36" s="10">
-        <v>712811</v>
+        <v>943928</v>
       </c>
       <c r="F36" s="11">
-        <v>2.2523023527437555E-3</v>
+        <v>2.9825735787196153E-3</v>
       </c>
       <c r="G36" s="11">
-        <v>4.0405360180338447E-2</v>
+        <v>5.3506119889152257E-2</v>
       </c>
       <c r="H36" s="18">
-        <v>8.3679814228044269E-3</v>
+        <v>1.1081158916550021E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -5695,25 +5819,25 @@
         <v>3</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E37" s="10">
-        <v>504170</v>
+        <v>583827</v>
       </c>
       <c r="F37" s="11">
-        <v>1.5930495982565073E-3</v>
+        <v>1.8447455576517879E-3</v>
       </c>
       <c r="G37" s="11">
-        <v>3.7461379121461295E-2</v>
+        <v>4.3380138818940803E-2</v>
       </c>
       <c r="H37" s="18">
-        <v>5.9186589347461072E-3</v>
+        <v>6.853785211131197E-3</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -5721,77 +5845,77 @@
         <v>16</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D38" s="9">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="E38" s="10">
-        <v>6648728</v>
+        <v>292938</v>
       </c>
       <c r="F38" s="11">
-        <v>2.1008297735519352E-2</v>
+        <v>9.2560993953242894E-4</v>
       </c>
       <c r="G38" s="11">
-        <v>3.4652715937846738E-2</v>
+        <v>1.6605054355934439E-2</v>
       </c>
       <c r="H38" s="18">
-        <v>2.8745302551303795E-2</v>
+        <v>1.266496604880487E-3</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="9">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E39" s="10">
-        <v>1218724</v>
+        <v>570196</v>
       </c>
       <c r="F39" s="11">
-        <v>3.8508593898596974E-3</v>
+        <v>1.8016750475582986E-3</v>
       </c>
       <c r="G39" s="11">
-        <v>3.2272692980190643E-2</v>
+        <v>1.5099202482705507E-2</v>
       </c>
       <c r="H39" s="18">
-        <v>5.2690665201727558E-3</v>
+        <v>6.693765297333224E-3</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E40" s="10">
-        <v>678261</v>
+        <v>375023</v>
       </c>
       <c r="F40" s="11">
-        <v>2.1431330970963303E-3</v>
+        <v>1.1849777644186486E-3</v>
       </c>
       <c r="G40" s="11">
-        <v>3.0344736565429707E-2</v>
+        <v>1.1228723696980546E-2</v>
       </c>
       <c r="H40" s="18">
-        <v>2.9324131854619206E-3</v>
+        <v>4.4025491990504978E-3</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -5799,51 +5923,51 @@
         <v>3</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E41" s="10">
-        <v>675360</v>
+        <v>229228</v>
       </c>
       <c r="F41" s="11">
-        <v>2.1339666713182355E-3</v>
+        <v>7.2430246406795856E-4</v>
       </c>
       <c r="G41" s="11">
-        <v>3.0214948650782822E-2</v>
+        <v>1.0255437469381729E-2</v>
       </c>
       <c r="H41" s="18">
-        <v>7.9283287346929229E-3</v>
+        <v>2.6910017460261035E-3</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="9">
         <v>12</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="9">
-        <v>29</v>
-      </c>
       <c r="E42" s="10">
-        <v>673451</v>
+        <v>1314040</v>
       </c>
       <c r="F42" s="11">
-        <v>2.1279347144721882E-3</v>
+        <v>4.1520338260764835E-3</v>
       </c>
       <c r="G42" s="11">
-        <v>3.0129541850003466E-2</v>
+        <v>6.8486866737469372E-3</v>
       </c>
       <c r="H42" s="18">
-        <v>2.9116174926208582E-3</v>
+        <v>1.5426055867294316E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -5851,25 +5975,25 @@
         <v>16</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D43" s="9">
         <v>10</v>
       </c>
       <c r="E43" s="10">
-        <v>381696</v>
+        <v>230532</v>
       </c>
       <c r="F43" s="11">
-        <v>1.2060627555311022E-3</v>
+        <v>7.2842277403508565E-4</v>
       </c>
       <c r="G43" s="11">
-        <v>2.8361184848652819E-2</v>
+        <v>6.1046540956847571E-3</v>
       </c>
       <c r="H43" s="18">
-        <v>1.6502355040877673E-3</v>
+        <v>9.9668870312594627E-4</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -5877,25 +6001,25 @@
         <v>3</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D44" s="9">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="E44" s="10">
-        <v>1051214</v>
+        <v>81812</v>
       </c>
       <c r="F44" s="11">
-        <v>3.3215701854168553E-3</v>
+        <v>2.5850521398052516E-4</v>
       </c>
       <c r="G44" s="11">
-        <v>2.7836907026101174E-2</v>
+        <v>6.0788828146954238E-3</v>
       </c>
       <c r="H44" s="18">
-        <v>1.2340633384434207E-2</v>
+        <v>9.6042470747852615E-4</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -5903,25 +6027,25 @@
         <v>16</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D45" s="9">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="E45" s="10">
-        <v>5298584</v>
+        <v>189862</v>
       </c>
       <c r="F45" s="11">
-        <v>1.6742184407101488E-2</v>
+        <v>5.9991586731494731E-4</v>
       </c>
       <c r="G45" s="11">
-        <v>2.7615857683577928E-2</v>
+        <v>5.6847391721470955E-3</v>
       </c>
       <c r="H45" s="18">
-        <v>2.2908051009681473E-2</v>
+        <v>8.2085485118290919E-4</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -5929,51 +6053,51 @@
         <v>3</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="9">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E46" s="10">
-        <v>422904</v>
+        <v>93700</v>
       </c>
       <c r="F46" s="11">
-        <v>1.3362696060873712E-3</v>
+        <v>2.9606828521457984E-4</v>
       </c>
       <c r="G46" s="11">
-        <v>2.3972116650424657E-2</v>
+        <v>5.3113409429676487E-3</v>
       </c>
       <c r="H46" s="18">
-        <v>4.9646439457719967E-3</v>
+        <v>1.0999828275893256E-3</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D47" s="9">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E47" s="10">
-        <v>788172</v>
+        <v>99362</v>
       </c>
       <c r="F47" s="11">
-        <v>2.4904240394252493E-3</v>
+        <v>3.1395877220374689E-4</v>
       </c>
       <c r="G47" s="11">
-        <v>2.3598994231544598E-2</v>
+        <v>4.4453591089775564E-3</v>
       </c>
       <c r="H47" s="18">
-        <v>9.2526751887591664E-3</v>
+        <v>4.2958453889264952E-4</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -5981,51 +6105,51 @@
         <v>16</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D48" s="9">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E48" s="10">
-        <v>701707</v>
+        <v>51136</v>
       </c>
       <c r="F48" s="11">
-        <v>2.2172165230850286E-3</v>
+        <v>1.6157681785200381E-4</v>
       </c>
       <c r="G48" s="11">
-        <v>2.1010108764628107E-2</v>
+        <v>3.799561819931858E-3</v>
       </c>
       <c r="H48" s="18">
-        <v>3.0337802986327208E-3</v>
+        <v>2.2108285844502451E-4</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D49" s="9">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E49" s="10">
-        <v>354107</v>
+        <v>557325</v>
       </c>
       <c r="F49" s="11">
-        <v>1.1188884981054347E-3</v>
+        <v>1.7610059451143622E-3</v>
       </c>
       <c r="G49" s="11">
-        <v>2.0072390686141358E-2</v>
+        <v>2.9047398103908646E-3</v>
       </c>
       <c r="H49" s="18">
-        <v>4.157007674804411E-3</v>
+        <v>2.4095549922339113E-3</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -6033,51 +6157,51 @@
         <v>16</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50" s="9">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="E50" s="10">
-        <v>292938</v>
+        <v>3966518</v>
       </c>
       <c r="F50" s="11">
-        <v>9.2560993953242894E-4</v>
+        <v>1.2533192983273905E-2</v>
       </c>
       <c r="G50" s="11">
-        <v>1.6605054355934439E-2</v>
+        <v>0.10503626548291478</v>
       </c>
       <c r="H50" s="18">
-        <v>1.266496604880487E-3</v>
+        <v>1.7148958415082169E-2</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="9">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="E51" s="10">
-        <v>570196</v>
+        <v>1481390</v>
       </c>
       <c r="F51" s="11">
-        <v>1.8016750475582986E-3</v>
+        <v>4.6808174710141568E-3</v>
       </c>
       <c r="G51" s="11">
-        <v>1.5099202482705507E-2</v>
+        <v>8.3971903516572521E-2</v>
       </c>
       <c r="H51" s="18">
-        <v>6.693765297333224E-3</v>
+        <v>6.4046842864493676E-3</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -6085,77 +6209,77 @@
         <v>3</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D52" s="9">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="E52" s="10">
-        <v>375023</v>
+        <v>3130903</v>
       </c>
       <c r="F52" s="11">
-        <v>1.1849777644186486E-3</v>
+        <v>9.8928610713253338E-3</v>
       </c>
       <c r="G52" s="11">
-        <v>1.1228723696980546E-2</v>
+        <v>8.2908575911984861E-2</v>
       </c>
       <c r="H52" s="18">
-        <v>4.4025491990504978E-3</v>
+        <v>3.6754957682474942E-2</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="E53" s="10">
-        <v>229228</v>
+        <v>2662009</v>
       </c>
       <c r="F53" s="11">
-        <v>7.2430246406795856E-4</v>
+        <v>8.4112747049709547E-3</v>
       </c>
       <c r="G53" s="11">
-        <v>1.0255437469381729E-2</v>
+        <v>7.9704347573016809E-2</v>
       </c>
       <c r="H53" s="18">
-        <v>2.6910017460261035E-3</v>
+        <v>1.1509006549718032E-2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="E54" s="10">
-        <v>1314040</v>
+        <v>1568147</v>
       </c>
       <c r="F54" s="11">
-        <v>4.1520338260764835E-3</v>
+        <v>4.95494763345131E-3</v>
       </c>
       <c r="G54" s="11">
-        <v>6.8486866737469372E-3</v>
+        <v>7.0157369524222829E-2</v>
       </c>
       <c r="H54" s="18">
-        <v>1.5426055867294316E-2</v>
+        <v>6.7797720044976114E-3</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -6163,25 +6287,25 @@
         <v>16</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D55" s="9">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="E55" s="10">
-        <v>230532</v>
+        <v>12686777</v>
       </c>
       <c r="F55" s="11">
-        <v>7.2842277403508565E-4</v>
+        <v>4.0087004389431934E-2</v>
       </c>
       <c r="G55" s="11">
-        <v>6.1046540956847571E-3</v>
+        <v>6.612261466370821E-2</v>
       </c>
       <c r="H55" s="18">
-        <v>9.9668870312594627E-4</v>
+        <v>5.4850377886705895E-2</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -6189,51 +6313,51 @@
         <v>3</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D56" s="9">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E56" s="10">
-        <v>81812</v>
+        <v>799954</v>
       </c>
       <c r="F56" s="11">
-        <v>2.5850521398052516E-4</v>
+        <v>2.5276521774871292E-3</v>
       </c>
       <c r="G56" s="11">
-        <v>6.0788828146954238E-3</v>
+        <v>5.943903856581996E-2</v>
       </c>
       <c r="H56" s="18">
-        <v>9.6042470747852615E-4</v>
+        <v>9.3909889312848594E-3</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="9">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="E57" s="10">
-        <v>189862</v>
+        <v>1983549</v>
       </c>
       <c r="F57" s="11">
-        <v>5.9991586731494731E-4</v>
+        <v>6.2675128182400714E-3</v>
       </c>
       <c r="G57" s="11">
-        <v>5.6847391721470955E-3</v>
+        <v>5.939028715684655E-2</v>
       </c>
       <c r="H57" s="18">
-        <v>8.2085485118290919E-4</v>
+        <v>2.3285697307171602E-2</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -6241,51 +6365,51 @@
         <v>3</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D58" s="9">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="E58" s="10">
-        <v>93700</v>
+        <v>10677858</v>
       </c>
       <c r="F58" s="11">
-        <v>2.9606828521457984E-4</v>
+        <v>3.3739328792153502E-2</v>
       </c>
       <c r="G58" s="11">
-        <v>5.3113409429676487E-3</v>
+        <v>5.5652266132508996E-2</v>
       </c>
       <c r="H58" s="18">
-        <v>1.0999828275893256E-3</v>
+        <v>0.12535176558631056</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="9">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="E59" s="10">
-        <v>99362</v>
+        <v>1149852</v>
       </c>
       <c r="F59" s="11">
-        <v>3.1395877220374689E-4</v>
+        <v>3.6332413008597127E-3</v>
       </c>
       <c r="G59" s="11">
-        <v>4.4453591089775564E-3</v>
+        <v>5.1443258611703284E-2</v>
       </c>
       <c r="H59" s="18">
-        <v>4.2958453889264952E-4</v>
+        <v>1.3498585424431603E-2</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -6293,55 +6417,55 @@
         <v>16</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D60" s="9">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E60" s="10">
-        <v>51136</v>
+        <v>618882</v>
       </c>
       <c r="F60" s="11">
-        <v>1.6157681785200381E-4</v>
+        <v>1.9555104854874026E-3</v>
       </c>
       <c r="G60" s="11">
-        <v>3.799561819931858E-3</v>
+        <v>4.5984832960009936E-2</v>
       </c>
       <c r="H60" s="18">
-        <v>2.2108285844502451E-4</v>
+        <v>2.6756923028819941E-3</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D61" s="26">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E61" s="27">
-        <v>557325</v>
+        <v>712811</v>
       </c>
       <c r="F61" s="28">
-        <v>1.7610059451143622E-3</v>
+        <v>2.2523023527437555E-3</v>
       </c>
       <c r="G61" s="28">
-        <v>2.9047398103908646E-3</v>
+        <v>4.0405360180338447E-2</v>
       </c>
       <c r="H61" s="29">
-        <v>2.4095549922339113E-3</v>
+        <v>8.3679814228044269E-3</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H71">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H71">
     <sortCondition ref="C2:C71"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
